--- a/data/TFL Station Counts/Annual_Counts/AC2021_AnnualisedEntryExit.xlsx
+++ b/data/TFL Station Counts/Annual_Counts/AC2021_AnnualisedEntryExit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\SP\12rev\07counts\Annual\2021\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olisa/code/Osakwe1/Projects/TFL/data/TFL Station Counts/Annual_Counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9F4795-9D8C-42CC-B179-8620B67D95EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2318FEFC-F9BB-A240-90FB-8584BFC67A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="909">
   <si>
     <t>Counts by Station</t>
   </si>
@@ -2692,9 +2692,6 @@
     <t>Reading</t>
   </si>
   <si>
-    <t>TRM</t>
-  </si>
-  <si>
     <t>HWVr</t>
   </si>
   <si>
@@ -2747,243 +2744,6 @@
   </si>
   <si>
     <t>Battersea Power Station</t>
-  </si>
-  <si>
-    <t>ADVt</t>
-  </si>
-  <si>
-    <t>ADSt</t>
-  </si>
-  <si>
-    <t>AMPt</t>
-  </si>
-  <si>
-    <t>ARNt</t>
-  </si>
-  <si>
-    <t>AVRt</t>
-  </si>
-  <si>
-    <t>BCJt</t>
-  </si>
-  <si>
-    <t>BCRt</t>
-  </si>
-  <si>
-    <t>BDLt</t>
-  </si>
-  <si>
-    <t>BGWt</t>
-  </si>
-  <si>
-    <t>BKBt</t>
-  </si>
-  <si>
-    <t>BHLt</t>
-  </si>
-  <si>
-    <t>TWRt</t>
-  </si>
-  <si>
-    <t>CSTt</t>
-  </si>
-  <si>
-    <t>COOt</t>
-  </si>
-  <si>
-    <t>DDRt</t>
-  </si>
-  <si>
-    <t>ECRt</t>
-  </si>
-  <si>
-    <t>ELMt</t>
-  </si>
-  <si>
-    <t>FLWt</t>
-  </si>
-  <si>
-    <t>GSTt</t>
-  </si>
-  <si>
-    <t>GVHt</t>
-  </si>
-  <si>
-    <t>HRDt</t>
-  </si>
-  <si>
-    <t>KHDt</t>
-  </si>
-  <si>
-    <t>LEBt</t>
-  </si>
-  <si>
-    <t>LPKt</t>
-  </si>
-  <si>
-    <t>MPKt</t>
-  </si>
-  <si>
-    <t>MTMt</t>
-  </si>
-  <si>
-    <t>MTJt</t>
-  </si>
-  <si>
-    <t>MRDt</t>
-  </si>
-  <si>
-    <t>NADt</t>
-  </si>
-  <si>
-    <t>PHLt</t>
-  </si>
-  <si>
-    <t>RVCt</t>
-  </si>
-  <si>
-    <t>SANt</t>
-  </si>
-  <si>
-    <t>TPLt</t>
-  </si>
-  <si>
-    <t>WDMt</t>
-  </si>
-  <si>
-    <t>WPKt</t>
-  </si>
-  <si>
-    <t>WLRt</t>
-  </si>
-  <si>
-    <t>WCRt</t>
-  </si>
-  <si>
-    <t>WMBt</t>
-  </si>
-  <si>
-    <t>WDSt</t>
-  </si>
-  <si>
-    <t>Addington Village</t>
-  </si>
-  <si>
-    <t>Addiscombe</t>
-  </si>
-  <si>
-    <t>Ampere Way</t>
-  </si>
-  <si>
-    <t>Arena</t>
-  </si>
-  <si>
-    <t>Avenue Road</t>
-  </si>
-  <si>
-    <t>Beckenham Junction Trams</t>
-  </si>
-  <si>
-    <t>Beckenham Road</t>
-  </si>
-  <si>
-    <t>Beddington Lane</t>
-  </si>
-  <si>
-    <t>Belgrave Walk</t>
-  </si>
-  <si>
-    <t>Birkbeck Trams</t>
-  </si>
-  <si>
-    <t>Blackhorse Lane</t>
-  </si>
-  <si>
-    <t>Centrale</t>
-  </si>
-  <si>
-    <t>Church Street</t>
-  </si>
-  <si>
-    <t>Coombe Lane</t>
-  </si>
-  <si>
-    <t>Dundonald Road</t>
-  </si>
-  <si>
-    <t>East Croydon Trams</t>
-  </si>
-  <si>
-    <t>Elmers End Trams</t>
-  </si>
-  <si>
-    <t>Fieldway</t>
-  </si>
-  <si>
-    <t>George Street</t>
-  </si>
-  <si>
-    <t>Gravel Hill</t>
-  </si>
-  <si>
-    <t>Harrington Road</t>
-  </si>
-  <si>
-    <t>King Henry's Drive</t>
-  </si>
-  <si>
-    <t>Lebanon Road</t>
-  </si>
-  <si>
-    <t>Lloyd Park</t>
-  </si>
-  <si>
-    <t>Merton Park</t>
-  </si>
-  <si>
-    <t>Mitcham</t>
-  </si>
-  <si>
-    <t>Mitcham Junction Trams</t>
-  </si>
-  <si>
-    <t>Morden Road</t>
-  </si>
-  <si>
-    <t>New Addington</t>
-  </si>
-  <si>
-    <t>Phipps Bridge</t>
-  </si>
-  <si>
-    <t>Reeves Corner</t>
-  </si>
-  <si>
-    <t>Sandilands</t>
-  </si>
-  <si>
-    <t>Therapia Lane</t>
-  </si>
-  <si>
-    <t>Waddon Marsh</t>
-  </si>
-  <si>
-    <t>Wandle Park</t>
-  </si>
-  <si>
-    <t>Wellesley Road</t>
-  </si>
-  <si>
-    <t>West Croydon Trams</t>
-  </si>
-  <si>
-    <t>Wimbledon Trams</t>
-  </si>
-  <si>
-    <t>Woodside</t>
-  </si>
-  <si>
-    <t>Trams boarding / alighting</t>
   </si>
   <si>
     <t>P789 factor</t>
@@ -3012,9 +2772,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3350,7 +3110,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -3512,10 +3272,10 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3552,7 +3312,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3840,7 +3600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3857,120 +3617,120 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="124" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="6.88671875" style="10"/>
+    <col min="3" max="16384" width="6.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2">
       <c r="B1" s="9" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" ht="34">
       <c r="B3" s="11" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="2:2" ht="51">
+      <c r="B5" s="11" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="2:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="2:2" ht="17">
+      <c r="B7" s="11" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" ht="34">
       <c r="B9" s="11" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2" ht="34">
       <c r="B11" s="11" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2" ht="17">
       <c r="B13" s="11" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="2:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2" ht="51">
       <c r="B15" s="11" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2">
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="17">
       <c r="B17" s="11" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="34">
       <c r="B18" s="11" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="17">
       <c r="B19" s="11" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="17">
       <c r="B20" s="11" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="34">
       <c r="B21" s="11" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="17">
       <c r="B22" s="11" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="17">
       <c r="B23" s="11" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2">
       <c r="B25" s="8" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2">
       <c r="B26" s="12" t="s">
-        <v>986</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -3987,26 +3747,26 @@
   <dimension ref="A1:O506"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G383" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomRight" activeCell="J479" sqref="J479"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="18">
       <c r="B1" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -4021,9 +3781,9 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="B2" s="6" t="s">
-        <v>988</v>
+        <v>908</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
@@ -4038,14 +3798,14 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -4053,9 +3813,9 @@
       <c r="D4" s="5"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="B5" s="7" t="s">
-        <v>987</v>
+        <v>907</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4072,10 +3832,10 @@
       <c r="M5" s="62"/>
       <c r="N5" s="62"/>
       <c r="O5" s="16" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="51">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4110,7 +3870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="17">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -4157,7 +3917,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -4204,7 +3964,7 @@
         <v>2902696.6814455488</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="18" t="s">
         <v>13</v>
       </c>
@@ -4251,7 +4011,7 @@
         <v>3525128.321636138</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
@@ -4298,7 +4058,7 @@
         <v>5611129.8277506493</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
@@ -4345,7 +4105,7 @@
         <v>1345253.1015861253</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
@@ -4392,7 +4152,7 @@
         <v>946577.04645560845</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
@@ -4439,7 +4199,7 @@
         <v>7258743.9137669979</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -4486,7 +4246,7 @@
         <v>4027456.2498556594</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
@@ -4533,7 +4293,7 @@
         <v>1963342.8382003249</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="18" t="s">
         <v>13</v>
       </c>
@@ -4580,7 +4340,7 @@
         <v>1209092.6311039224</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="18" t="s">
         <v>13</v>
       </c>
@@ -4627,7 +4387,7 @@
         <v>11147641.521644613</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="18" t="s">
         <v>13</v>
       </c>
@@ -4674,7 +4434,7 @@
         <v>5356511.9892190322</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="18" t="s">
         <v>13</v>
       </c>
@@ -4721,7 +4481,7 @@
         <v>17657529.457220882</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="18" t="s">
         <v>13</v>
       </c>
@@ -4768,7 +4528,7 @@
         <v>3467856.0708414633</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="18" t="s">
         <v>13</v>
       </c>
@@ -4815,7 +4575,7 @@
         <v>9272519.4799300395</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="18" t="s">
         <v>13</v>
       </c>
@@ -4862,7 +4622,7 @@
         <v>647202.77616178256</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="18" t="s">
         <v>13</v>
       </c>
@@ -4909,7 +4669,7 @@
         <v>2900237.2108172877</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="18" t="s">
         <v>13</v>
       </c>
@@ -4956,7 +4716,7 @@
         <v>1498956.8863034297</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="18" t="s">
         <v>13</v>
       </c>
@@ -5003,7 +4763,7 @@
         <v>1759768.3780581478</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="18" t="s">
         <v>13</v>
       </c>
@@ -5050,7 +4810,7 @@
         <v>2609939.281540521</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="18" t="s">
         <v>13</v>
       </c>
@@ -5097,7 +4857,7 @@
         <v>4176708.9254216608</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="18" t="s">
         <v>13</v>
       </c>
@@ -5144,7 +4904,7 @@
         <v>6322604.0831544651</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="18" t="s">
         <v>13</v>
       </c>
@@ -5191,7 +4951,7 @@
         <v>4795990.473550925</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="18" t="s">
         <v>13</v>
       </c>
@@ -5238,7 +4998,7 @@
         <v>4985900.7785498612</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="18" t="s">
         <v>13</v>
       </c>
@@ -5285,7 +5045,7 @@
         <v>15694938.995701106</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="18" t="s">
         <v>13</v>
       </c>
@@ -5332,7 +5092,7 @@
         <v>2066433.7115032035</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" s="18" t="s">
         <v>13</v>
       </c>
@@ -5379,7 +5139,7 @@
         <v>879894.73880651838</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" s="18" t="s">
         <v>13</v>
       </c>
@@ -5426,7 +5186,7 @@
         <v>2509255.341356731</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="18" t="s">
         <v>13</v>
       </c>
@@ -5473,7 +5233,7 @@
         <v>2257179.8931552772</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" s="18" t="s">
         <v>13</v>
       </c>
@@ -5520,7 +5280,7 @@
         <v>1071927.2420399857</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" s="18" t="s">
         <v>13</v>
       </c>
@@ -5567,7 +5327,7 @@
         <v>12831055.516087085</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" s="18" t="s">
         <v>13</v>
       </c>
@@ -5614,7 +5374,7 @@
         <v>2030518.6920221206</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" s="18" t="s">
         <v>13</v>
       </c>
@@ -5661,7 +5421,7 @@
         <v>1072751.3673026443</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="18" t="s">
         <v>13</v>
       </c>
@@ -5708,7 +5468,7 @@
         <v>1912270.1378944612</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" s="18" t="s">
         <v>13</v>
       </c>
@@ -5755,7 +5515,7 @@
         <v>2421295.4221278243</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" s="18" t="s">
         <v>13</v>
       </c>
@@ -5802,7 +5562,7 @@
         <v>9118496.5739291571</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43" s="18" t="s">
         <v>13</v>
       </c>
@@ -5849,7 +5609,7 @@
         <v>5970316.6659588655</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" s="18" t="s">
         <v>13</v>
       </c>
@@ -5896,7 +5656,7 @@
         <v>18288801.952685412</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" s="18" t="s">
         <v>13</v>
       </c>
@@ -5943,7 +5703,7 @@
         <v>7522671.7649042057</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" s="18" t="s">
         <v>13</v>
       </c>
@@ -5990,7 +5750,7 @@
         <v>2147772.2728080354</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" s="18" t="s">
         <v>13</v>
       </c>
@@ -6037,7 +5797,7 @@
         <v>1249231.2903065949</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" s="18" t="s">
         <v>13</v>
       </c>
@@ -6084,7 +5844,7 @@
         <v>736602.08223396237</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49" s="18" t="s">
         <v>13</v>
       </c>
@@ -6131,7 +5891,7 @@
         <v>2195398.0446336591</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50" s="18" t="s">
         <v>13</v>
       </c>
@@ -6178,7 +5938,7 @@
         <v>5469516.0619619405</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51" s="18" t="s">
         <v>13</v>
       </c>
@@ -6225,7 +5985,7 @@
         <v>7154835.2110191947</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52" s="18" t="s">
         <v>13</v>
       </c>
@@ -6272,7 +6032,7 @@
         <v>507494.68499916978</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53" s="18" t="s">
         <v>13</v>
       </c>
@@ -6319,7 +6079,7 @@
         <v>192328.26002610111</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="A54" s="18" t="s">
         <v>13</v>
       </c>
@@ -6366,7 +6126,7 @@
         <v>1013033.0874167082</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55" s="18" t="s">
         <v>13</v>
       </c>
@@ -6413,7 +6173,7 @@
         <v>803804.73843039072</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56" s="18" t="s">
         <v>13</v>
       </c>
@@ -6460,7 +6220,7 @@
         <v>4712091.771364362</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57" s="18" t="s">
         <v>13</v>
       </c>
@@ -6507,7 +6267,7 @@
         <v>3273797.3291132129</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15">
       <c r="A58" s="18" t="s">
         <v>13</v>
       </c>
@@ -6554,7 +6314,7 @@
         <v>3758230.6080753668</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15">
       <c r="A59" s="18" t="s">
         <v>13</v>
       </c>
@@ -6601,7 +6361,7 @@
         <v>836565.95099760243</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15">
       <c r="A60" s="18" t="s">
         <v>13</v>
       </c>
@@ -6648,7 +6408,7 @@
         <v>3432151.6068466301</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="A61" s="18" t="s">
         <v>13</v>
       </c>
@@ -6695,7 +6455,7 @@
         <v>3024059.9177042474</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="A62" s="18" t="s">
         <v>13</v>
       </c>
@@ -6742,7 +6502,7 @@
         <v>7484431.5607199166</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15">
       <c r="A63" s="18" t="s">
         <v>13</v>
       </c>
@@ -6789,7 +6549,7 @@
         <v>487950.04858723015</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64" s="18" t="s">
         <v>13</v>
       </c>
@@ -6836,7 +6596,7 @@
         <v>1496281.6172483179</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65" s="18" t="s">
         <v>13</v>
       </c>
@@ -6883,7 +6643,7 @@
         <v>2869563.7501733173</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15">
       <c r="A66" s="18" t="s">
         <v>13</v>
       </c>
@@ -6930,7 +6690,7 @@
         <v>1106863.2929024659</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15">
       <c r="A67" s="18" t="s">
         <v>13</v>
       </c>
@@ -6977,7 +6737,7 @@
         <v>1865452.7459556123</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15">
       <c r="A68" s="18" t="s">
         <v>13</v>
       </c>
@@ -7024,7 +6784,7 @@
         <v>6934968.4049782064</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15">
       <c r="A69" s="18" t="s">
         <v>13</v>
       </c>
@@ -7071,7 +6831,7 @@
         <v>1308099.9789854758</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15">
       <c r="A70" s="18" t="s">
         <v>13</v>
       </c>
@@ -7118,7 +6878,7 @@
         <v>8396551.7221317422</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15">
       <c r="A71" s="18" t="s">
         <v>13</v>
       </c>
@@ -7165,7 +6925,7 @@
         <v>1326939.2645767066</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15">
       <c r="A72" s="18" t="s">
         <v>13</v>
       </c>
@@ -7212,7 +6972,7 @@
         <v>2809497.5706757205</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15">
       <c r="A73" s="18" t="s">
         <v>13</v>
       </c>
@@ -7259,7 +7019,7 @@
         <v>5966757.2377671376</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15">
       <c r="A74" s="18" t="s">
         <v>13</v>
       </c>
@@ -7306,7 +7066,7 @@
         <v>3007533.4893968618</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15">
       <c r="A75" s="18" t="s">
         <v>13</v>
       </c>
@@ -7353,7 +7113,7 @@
         <v>1187713.6440291903</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15">
       <c r="A76" s="18" t="s">
         <v>13</v>
       </c>
@@ -7400,7 +7160,7 @@
         <v>2278683.4267640333</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15">
       <c r="A77" s="18" t="s">
         <v>13</v>
       </c>
@@ -7447,7 +7207,7 @@
         <v>2183057.6488769371</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15">
       <c r="A78" s="18" t="s">
         <v>13</v>
       </c>
@@ -7494,7 +7254,7 @@
         <v>2838710.2823409759</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15">
       <c r="A79" s="18" t="s">
         <v>13</v>
       </c>
@@ -7541,7 +7301,7 @@
         <v>7881462.5603253245</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15">
       <c r="A80" s="18" t="s">
         <v>13</v>
       </c>
@@ -7588,7 +7348,7 @@
         <v>1406370.0984867786</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15">
       <c r="A81" s="18" t="s">
         <v>13</v>
       </c>
@@ -7635,7 +7395,7 @@
         <v>8251813.1789820092</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15">
       <c r="A82" s="18" t="s">
         <v>13</v>
       </c>
@@ -7682,7 +7442,7 @@
         <v>1890743.3886003539</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15">
       <c r="A83" s="18" t="s">
         <v>13</v>
       </c>
@@ -7729,7 +7489,7 @@
         <v>15882122.581563259</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15">
       <c r="A84" s="18" t="s">
         <v>13</v>
       </c>
@@ -7776,7 +7536,7 @@
         <v>5263980.4374774676</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15">
       <c r="A85" s="18" t="s">
         <v>13</v>
       </c>
@@ -7823,7 +7583,7 @@
         <v>541194.15327198501</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15">
       <c r="A86" s="18" t="s">
         <v>13</v>
       </c>
@@ -7870,7 +7630,7 @@
         <v>8497573.1217578258</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15">
       <c r="A87" s="18" t="s">
         <v>13</v>
       </c>
@@ -7917,7 +7677,7 @@
         <v>3523038.496092591</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15">
       <c r="A88" s="18" t="s">
         <v>13</v>
       </c>
@@ -7964,7 +7724,7 @@
         <v>3908194.6998210452</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15">
       <c r="A89" s="18" t="s">
         <v>13</v>
       </c>
@@ -8011,7 +7771,7 @@
         <v>14048632.394050144</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15">
       <c r="A90" s="18" t="s">
         <v>13</v>
       </c>
@@ -8058,7 +7818,7 @@
         <v>4148234.7168635461</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15">
       <c r="A91" s="18" t="s">
         <v>13</v>
       </c>
@@ -8105,7 +7865,7 @@
         <v>2835478.3788232645</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15">
       <c r="A92" s="18" t="s">
         <v>13</v>
       </c>
@@ -8152,7 +7912,7 @@
         <v>6967643.064189312</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15">
       <c r="A93" s="18" t="s">
         <v>13</v>
       </c>
@@ -8199,7 +7959,7 @@
         <v>3332144.0867015352</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15">
       <c r="A94" s="18" t="s">
         <v>13</v>
       </c>
@@ -8246,7 +8006,7 @@
         <v>954301.0258332832</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15">
       <c r="A95" s="18" t="s">
         <v>13</v>
       </c>
@@ -8293,7 +8053,7 @@
         <v>2537085.7698196978</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15">
       <c r="A96" s="18" t="s">
         <v>13</v>
       </c>
@@ -8340,7 +8100,7 @@
         <v>232680.38707865452</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15">
       <c r="A97" s="18" t="s">
         <v>13</v>
       </c>
@@ -8387,7 +8147,7 @@
         <v>2685637.0287484112</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15">
       <c r="A98" s="18" t="s">
         <v>13</v>
       </c>
@@ -8434,7 +8194,7 @@
         <v>15943762.550329572</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99" s="18" t="s">
         <v>13</v>
       </c>
@@ -8481,7 +8241,7 @@
         <v>2049869.2772847533</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15">
       <c r="A100" s="18" t="s">
         <v>13</v>
       </c>
@@ -8528,7 +8288,7 @@
         <v>1967487.4316239906</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15">
       <c r="A101" s="18" t="s">
         <v>13</v>
       </c>
@@ -8575,7 +8335,7 @@
         <v>1732237.2618523836</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15">
       <c r="A102" s="18" t="s">
         <v>13</v>
       </c>
@@ -8622,7 +8382,7 @@
         <v>10798249.472104158</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15">
       <c r="A103" s="18" t="s">
         <v>13</v>
       </c>
@@ -8669,7 +8429,7 @@
         <v>4225083.1603927575</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15">
       <c r="A104" s="18" t="s">
         <v>13</v>
       </c>
@@ -8716,7 +8476,7 @@
         <v>2111620.3941595159</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15">
       <c r="A105" s="18" t="s">
         <v>13</v>
       </c>
@@ -8763,7 +8523,7 @@
         <v>1467627.9775085812</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15">
       <c r="A106" s="18" t="s">
         <v>13</v>
       </c>
@@ -8810,7 +8570,7 @@
         <v>1549699.5392564668</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15">
       <c r="A107" s="18" t="s">
         <v>13</v>
       </c>
@@ -8857,7 +8617,7 @@
         <v>2079626.6348096838</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15">
       <c r="A108" s="18" t="s">
         <v>13</v>
       </c>
@@ -8904,7 +8664,7 @@
         <v>4761644.7919212691</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15">
       <c r="A109" s="18" t="s">
         <v>13</v>
       </c>
@@ -8951,7 +8711,7 @@
         <v>1411470.0967989732</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15">
       <c r="A110" s="18" t="s">
         <v>13</v>
       </c>
@@ -8994,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15">
       <c r="A111" s="18" t="s">
         <v>13</v>
       </c>
@@ -9041,7 +8801,7 @@
         <v>2027836.5716470117</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15">
       <c r="A112" s="18" t="s">
         <v>13</v>
       </c>
@@ -9088,7 +8848,7 @@
         <v>2452747.0221787994</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15">
       <c r="A113" s="18" t="s">
         <v>13</v>
       </c>
@@ -9135,7 +8895,7 @@
         <v>2933496.1020240509</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15">
       <c r="A114" s="18" t="s">
         <v>13</v>
       </c>
@@ -9182,7 +8942,7 @@
         <v>1826421.39658545</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15">
       <c r="A115" s="18" t="s">
         <v>13</v>
       </c>
@@ -9229,7 +8989,7 @@
         <v>4454568.089266466</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15">
       <c r="A116" s="18" t="s">
         <v>13</v>
       </c>
@@ -9276,7 +9036,7 @@
         <v>8340489.6978242882</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15">
       <c r="A117" s="18" t="s">
         <v>13</v>
       </c>
@@ -9323,7 +9083,7 @@
         <v>2428486.3453204976</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15">
       <c r="A118" s="18" t="s">
         <v>13</v>
       </c>
@@ -9370,7 +9130,7 @@
         <v>747141.38499381789</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15">
       <c r="A119" s="18" t="s">
         <v>13</v>
       </c>
@@ -9417,7 +9177,7 @@
         <v>11252227.528444076</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15">
       <c r="A120" s="18" t="s">
         <v>13</v>
       </c>
@@ -9464,7 +9224,7 @@
         <v>1618470.6480981845</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15">
       <c r="A121" s="18" t="s">
         <v>13</v>
       </c>
@@ -9511,7 +9271,7 @@
         <v>2882905.2072229423</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15">
       <c r="A122" s="18" t="s">
         <v>13</v>
       </c>
@@ -9558,7 +9318,7 @@
         <v>934752.11854976579</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15">
       <c r="A123" s="18" t="s">
         <v>13</v>
       </c>
@@ -9605,7 +9365,7 @@
         <v>1519625.614353782</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15">
       <c r="A124" s="18" t="s">
         <v>13</v>
       </c>
@@ -9652,7 +9412,7 @@
         <v>1773817.6673917614</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15">
       <c r="A125" s="18" t="s">
         <v>13</v>
       </c>
@@ -9699,7 +9459,7 @@
         <v>1550627.9387338348</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15">
       <c r="A126" s="18" t="s">
         <v>13</v>
       </c>
@@ -9746,7 +9506,7 @@
         <v>1883530.202423712</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15">
       <c r="A127" s="18" t="s">
         <v>13</v>
       </c>
@@ -9793,7 +9553,7 @@
         <v>480784.67983393749</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15">
       <c r="A128" s="18" t="s">
         <v>13</v>
       </c>
@@ -9840,7 +9600,7 @@
         <v>2486398.4270588807</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15">
       <c r="A129" s="18" t="s">
         <v>13</v>
       </c>
@@ -9887,7 +9647,7 @@
         <v>1068361.5590394947</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15">
       <c r="A130" s="18" t="s">
         <v>13</v>
       </c>
@@ -9934,7 +9694,7 @@
         <v>34499.471166574709</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15">
       <c r="A131" s="18" t="s">
         <v>13</v>
       </c>
@@ -9981,7 +9741,7 @@
         <v>3708705.0906807161</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15">
       <c r="A132" s="18" t="s">
         <v>13</v>
       </c>
@@ -10028,7 +9788,7 @@
         <v>949500.2570078905</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15">
       <c r="A133" s="18" t="s">
         <v>13</v>
       </c>
@@ -10075,7 +9835,7 @@
         <v>2146236.0233652415</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15">
       <c r="A134" s="18" t="s">
         <v>13</v>
       </c>
@@ -10122,7 +9882,7 @@
         <v>3297470.829544229</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15">
       <c r="A135" s="18" t="s">
         <v>13</v>
       </c>
@@ -10169,7 +9929,7 @@
         <v>1375207.281858983</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15">
       <c r="A136" s="18" t="s">
         <v>13</v>
       </c>
@@ -10216,7 +9976,7 @@
         <v>36734085.143091775</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15">
       <c r="A137" s="18" t="s">
         <v>13</v>
       </c>
@@ -10263,7 +10023,7 @@
         <v>2067899.1221485608</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15">
       <c r="A138" s="18" t="s">
         <v>13</v>
       </c>
@@ -10310,7 +10070,7 @@
         <v>7453212.2861503325</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15">
       <c r="A139" s="18" t="s">
         <v>13</v>
       </c>
@@ -10357,7 +10117,7 @@
         <v>2648507.0661840132</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15">
       <c r="A140" s="18" t="s">
         <v>13</v>
       </c>
@@ -10404,7 +10164,7 @@
         <v>1286347.0235102612</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15">
       <c r="A141" s="18" t="s">
         <v>13</v>
       </c>
@@ -10451,7 +10211,7 @@
         <v>2668131.3162547336</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15">
       <c r="A142" s="18" t="s">
         <v>13</v>
       </c>
@@ -10498,7 +10258,7 @@
         <v>1075228.5362493342</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15">
       <c r="A143" s="18" t="s">
         <v>13</v>
       </c>
@@ -10545,7 +10305,7 @@
         <v>16345381.072358202</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15">
       <c r="A144" s="18" t="s">
         <v>13</v>
       </c>
@@ -10592,7 +10352,7 @@
         <v>5293420.446698443</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15">
       <c r="A145" s="18" t="s">
         <v>13</v>
       </c>
@@ -10639,7 +10399,7 @@
         <v>4259419.3187860642</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15">
       <c r="A146" s="18" t="s">
         <v>13</v>
       </c>
@@ -10686,7 +10446,7 @@
         <v>26596892.965312362</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15">
       <c r="A147" s="18" t="s">
         <v>13</v>
       </c>
@@ -10733,7 +10493,7 @@
         <v>30857082.442871094</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15">
       <c r="A148" s="18" t="s">
         <v>13</v>
       </c>
@@ -10780,7 +10540,7 @@
         <v>1606879.2603293774</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15">
       <c r="A149" s="18" t="s">
         <v>13</v>
       </c>
@@ -10827,7 +10587,7 @@
         <v>1433954.3722272692</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15">
       <c r="A150" s="18" t="s">
         <v>13</v>
       </c>
@@ -10874,7 +10634,7 @@
         <v>3593705.5778705459</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15">
       <c r="A151" s="18" t="s">
         <v>13</v>
       </c>
@@ -10921,7 +10681,7 @@
         <v>2088947.6711565475</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15">
       <c r="A152" s="18" t="s">
         <v>13</v>
       </c>
@@ -10968,7 +10728,7 @@
         <v>5242933.4115555277</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15">
       <c r="A153" s="18" t="s">
         <v>13</v>
       </c>
@@ -11015,7 +10775,7 @@
         <v>4597698.232766741</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15">
       <c r="A154" s="18" t="s">
         <v>13</v>
       </c>
@@ -11062,7 +10822,7 @@
         <v>6644477.2267537192</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15">
       <c r="A155" s="18" t="s">
         <v>13</v>
       </c>
@@ -11109,7 +10869,7 @@
         <v>764643.84182395588</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15">
       <c r="A156" s="18" t="s">
         <v>13</v>
       </c>
@@ -11156,7 +10916,7 @@
         <v>463133.19847894093</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15">
       <c r="A157" s="18" t="s">
         <v>13</v>
       </c>
@@ -11203,7 +10963,7 @@
         <v>8789962.3314515706</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15">
       <c r="A158" s="18" t="s">
         <v>13</v>
       </c>
@@ -11250,7 +11010,7 @@
         <v>4421002.2120456928</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15">
       <c r="A159" s="18" t="s">
         <v>13</v>
       </c>
@@ -11297,7 +11057,7 @@
         <v>1425295.8487985909</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15">
       <c r="A160" s="18" t="s">
         <v>13</v>
       </c>
@@ -11344,7 +11104,7 @@
         <v>1564012.4479300112</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15">
       <c r="A161" s="18" t="s">
         <v>13</v>
       </c>
@@ -11391,7 +11151,7 @@
         <v>2218404.2653865167</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15">
       <c r="A162" s="18" t="s">
         <v>13</v>
       </c>
@@ -11438,7 +11198,7 @@
         <v>3148552.3224191908</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15">
       <c r="A163" s="18" t="s">
         <v>13</v>
       </c>
@@ -11485,7 +11245,7 @@
         <v>357587.51794804976</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15">
       <c r="A164" s="18" t="s">
         <v>13</v>
       </c>
@@ -11532,7 +11292,7 @@
         <v>11279521.955537954</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15">
       <c r="A165" s="18" t="s">
         <v>13</v>
       </c>
@@ -11579,7 +11339,7 @@
         <v>769256.96380646294</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15">
       <c r="A166" s="18" t="s">
         <v>13</v>
       </c>
@@ -11626,7 +11386,7 @@
         <v>778945.5697120087</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15">
       <c r="A167" s="18" t="s">
         <v>13</v>
       </c>
@@ -11673,7 +11433,7 @@
         <v>1630937.9281216301</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15">
       <c r="A168" s="18" t="s">
         <v>13</v>
       </c>
@@ -11720,7 +11480,7 @@
         <v>2467439.8741471395</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15">
       <c r="A169" s="18" t="s">
         <v>13</v>
       </c>
@@ -11767,7 +11527,7 @@
         <v>1836275.5006550073</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15">
       <c r="A170" s="18" t="s">
         <v>13</v>
       </c>
@@ -11814,7 +11574,7 @@
         <v>1274615.0681478302</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15">
       <c r="A171" s="18" t="s">
         <v>13</v>
       </c>
@@ -11861,7 +11621,7 @@
         <v>831676.5681801982</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15">
       <c r="A172" s="18" t="s">
         <v>13</v>
       </c>
@@ -11908,7 +11668,7 @@
         <v>6404192.5842346158</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15">
       <c r="A173" s="18" t="s">
         <v>13</v>
       </c>
@@ -11955,7 +11715,7 @@
         <v>1290796.1773989392</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15">
       <c r="A174" s="18" t="s">
         <v>13</v>
       </c>
@@ -12002,7 +11762,7 @@
         <v>9635309.8921745308</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15">
       <c r="A175" s="18" t="s">
         <v>13</v>
       </c>
@@ -12049,7 +11809,7 @@
         <v>911251.97990985331</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15">
       <c r="A176" s="18" t="s">
         <v>13</v>
       </c>
@@ -12096,7 +11856,7 @@
         <v>3129276.4199493965</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15">
       <c r="A177" s="18" t="s">
         <v>13</v>
       </c>
@@ -12143,7 +11903,7 @@
         <v>32863151.9297591</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15">
       <c r="A178" s="18" t="s">
         <v>13</v>
       </c>
@@ -12190,7 +11950,7 @@
         <v>20437217.243160326</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15">
       <c r="A179" s="18" t="s">
         <v>13</v>
       </c>
@@ -12237,7 +11997,7 @@
         <v>918332.62358165276</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15">
       <c r="A180" s="18" t="s">
         <v>13</v>
       </c>
@@ -12284,7 +12044,7 @@
         <v>2993896.9581227135</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15">
       <c r="A181" s="18" t="s">
         <v>13</v>
       </c>
@@ -12331,7 +12091,7 @@
         <v>1080893.135110945</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15">
       <c r="A182" s="18" t="s">
         <v>13</v>
       </c>
@@ -12378,7 +12138,7 @@
         <v>14144793.462933667</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15">
       <c r="A183" s="18" t="s">
         <v>13</v>
       </c>
@@ -12425,7 +12185,7 @@
         <v>4058878.0608390779</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15">
       <c r="A184" s="18" t="s">
         <v>13</v>
       </c>
@@ -12472,7 +12232,7 @@
         <v>1280875.031580158</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15">
       <c r="A185" s="18" t="s">
         <v>13</v>
       </c>
@@ -12519,7 +12279,7 @@
         <v>2671882.0454422086</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15">
       <c r="A186" s="18" t="s">
         <v>13</v>
       </c>
@@ -12566,7 +12326,7 @@
         <v>1388172.8242749968</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15">
       <c r="A187" s="18" t="s">
         <v>13</v>
       </c>
@@ -12613,7 +12373,7 @@
         <v>2686314.4000086104</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15">
       <c r="A188" s="18" t="s">
         <v>13</v>
       </c>
@@ -12660,7 +12420,7 @@
         <v>2380111.096788208</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15">
       <c r="A189" s="18" t="s">
         <v>13</v>
       </c>
@@ -12707,7 +12467,7 @@
         <v>1835749.5119963249</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15">
       <c r="A190" s="18" t="s">
         <v>13</v>
       </c>
@@ -12754,7 +12514,7 @@
         <v>3619503.743344883</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15">
       <c r="A191" s="18" t="s">
         <v>13</v>
       </c>
@@ -12801,7 +12561,7 @@
         <v>1533828.2053819038</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15">
       <c r="A192" s="18" t="s">
         <v>13</v>
       </c>
@@ -12848,7 +12608,7 @@
         <v>1778249.8403054916</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15">
       <c r="A193" s="18" t="s">
         <v>13</v>
       </c>
@@ -12895,7 +12655,7 @@
         <v>1259737.6516653434</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15">
       <c r="A194" s="18" t="s">
         <v>13</v>
       </c>
@@ -12942,7 +12702,7 @@
         <v>1265551.3022121568</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15">
       <c r="A195" s="18" t="s">
         <v>13</v>
       </c>
@@ -12989,7 +12749,7 @@
         <v>2196601.6858977838</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15">
       <c r="A196" s="18" t="s">
         <v>13</v>
       </c>
@@ -13036,7 +12796,7 @@
         <v>1098469.1657268065</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15">
       <c r="A197" s="18" t="s">
         <v>13</v>
       </c>
@@ -13083,7 +12843,7 @@
         <v>155225.93930126916</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15">
       <c r="A198" s="18" t="s">
         <v>13</v>
       </c>
@@ -13130,7 +12890,7 @@
         <v>1185481.0862623958</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15">
       <c r="A199" s="18" t="s">
         <v>13</v>
       </c>
@@ -13177,7 +12937,7 @@
         <v>821706.28362447233</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15">
       <c r="A200" s="18" t="s">
         <v>13</v>
       </c>
@@ -13224,7 +12984,7 @@
         <v>476607.29559885478</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15">
       <c r="A201" s="18" t="s">
         <v>13</v>
       </c>
@@ -13271,7 +13031,7 @@
         <v>839241.85945406707</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15">
       <c r="A202" s="18" t="s">
         <v>13</v>
       </c>
@@ -13318,7 +13078,7 @@
         <v>3655413.6815384682</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15">
       <c r="A203" s="18" t="s">
         <v>13</v>
       </c>
@@ -13365,7 +13125,7 @@
         <v>7364300.124802812</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15">
       <c r="A204" s="18" t="s">
         <v>13</v>
       </c>
@@ -13412,7 +13172,7 @@
         <v>7584135.1946025463</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15">
       <c r="A205" s="18" t="s">
         <v>13</v>
       </c>
@@ -13459,7 +13219,7 @@
         <v>1656235.7060733349</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15">
       <c r="A206" s="18" t="s">
         <v>13</v>
       </c>
@@ -13506,7 +13266,7 @@
         <v>7380127.8182966299</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15">
       <c r="A207" s="18" t="s">
         <v>13</v>
       </c>
@@ -13553,7 +13313,7 @@
         <v>1083967.6154697842</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15">
       <c r="A208" s="18" t="s">
         <v>13</v>
       </c>
@@ -13600,7 +13360,7 @@
         <v>1495186.4730972296</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15">
       <c r="A209" s="18" t="s">
         <v>13</v>
       </c>
@@ -13647,7 +13407,7 @@
         <v>1013771.8732600188</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15">
       <c r="A210" s="18" t="s">
         <v>13</v>
       </c>
@@ -13694,7 +13454,7 @@
         <v>10824382.963801803</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15">
       <c r="A211" s="18" t="s">
         <v>13</v>
       </c>
@@ -13741,7 +13501,7 @@
         <v>626385.99037399504</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15">
       <c r="A212" s="18" t="s">
         <v>13</v>
       </c>
@@ -13788,7 +13548,7 @@
         <v>888275.66548262024</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15">
       <c r="A213" s="18" t="s">
         <v>13</v>
       </c>
@@ -13835,7 +13595,7 @@
         <v>1937292.6842578165</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15">
       <c r="A214" s="18" t="s">
         <v>13</v>
       </c>
@@ -13882,7 +13642,7 @@
         <v>2380524.2715841043</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15">
       <c r="A215" s="18" t="s">
         <v>13</v>
       </c>
@@ -13929,7 +13689,7 @@
         <v>2695551.9510041885</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15">
       <c r="A216" s="18" t="s">
         <v>13</v>
       </c>
@@ -13976,7 +13736,7 @@
         <v>2312226.1632948457</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15">
       <c r="A217" s="18" t="s">
         <v>13</v>
       </c>
@@ -14023,7 +13783,7 @@
         <v>5034191.6050347537</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15">
       <c r="A218" s="18" t="s">
         <v>13</v>
       </c>
@@ -14070,7 +13830,7 @@
         <v>3901970.3416633536</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15">
       <c r="A219" s="18" t="s">
         <v>13</v>
       </c>
@@ -14117,7 +13877,7 @@
         <v>3464027.1007740404</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15">
       <c r="A220" s="18" t="s">
         <v>13</v>
       </c>
@@ -14164,7 +13924,7 @@
         <v>5359931.595628622</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15">
       <c r="A221" s="18" t="s">
         <v>13</v>
       </c>
@@ -14211,7 +13971,7 @@
         <v>1223866.2104245024</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15">
       <c r="A222" s="18" t="s">
         <v>13</v>
       </c>
@@ -14258,7 +14018,7 @@
         <v>1729034.0849312535</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15">
       <c r="A223" s="18" t="s">
         <v>13</v>
       </c>
@@ -14305,7 +14065,7 @@
         <v>2707640.9627047838</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15">
       <c r="A224" s="18" t="s">
         <v>13</v>
       </c>
@@ -14352,7 +14112,7 @@
         <v>4614856.082231502</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15">
       <c r="A225" s="18" t="s">
         <v>13</v>
       </c>
@@ -14399,7 +14159,7 @@
         <v>1237626.5655297723</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15">
       <c r="A226" s="18" t="s">
         <v>13</v>
       </c>
@@ -14446,7 +14206,7 @@
         <v>29106619.052794084</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15">
       <c r="A227" s="18" t="s">
         <v>13</v>
       </c>
@@ -14493,7 +14253,7 @@
         <v>889528.585883589</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15">
       <c r="A228" s="18" t="s">
         <v>13</v>
       </c>
@@ -14540,7 +14300,7 @@
         <v>835671.17260656634</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15">
       <c r="A229" s="18" t="s">
         <v>13</v>
       </c>
@@ -14587,7 +14347,7 @@
         <v>3001198.252134522</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15">
       <c r="A230" s="18" t="s">
         <v>13</v>
       </c>
@@ -14634,7 +14394,7 @@
         <v>3070900.0492433286</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15">
       <c r="A231" s="18" t="s">
         <v>13</v>
       </c>
@@ -14681,7 +14441,7 @@
         <v>423966.75000510033</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15">
       <c r="A232" s="18" t="s">
         <v>13</v>
       </c>
@@ -14728,7 +14488,7 @@
         <v>3610528.578233202</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15">
       <c r="A233" s="18" t="s">
         <v>13</v>
       </c>
@@ -14775,7 +14535,7 @@
         <v>6892543.8920844095</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15">
       <c r="A234" s="18" t="s">
         <v>13</v>
       </c>
@@ -14822,7 +14582,7 @@
         <v>16036230.852817895</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15">
       <c r="A235" s="18" t="s">
         <v>13</v>
       </c>
@@ -14869,7 +14629,7 @@
         <v>7115066.40301657</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15">
       <c r="A236" s="18" t="s">
         <v>13</v>
       </c>
@@ -14916,7 +14676,7 @@
         <v>1064853.2701641982</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15">
       <c r="A237" s="18" t="s">
         <v>13</v>
       </c>
@@ -14963,7 +14723,7 @@
         <v>7328487.8502905639</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15">
       <c r="A238" s="18" t="s">
         <v>13</v>
       </c>
@@ -15010,7 +14770,7 @@
         <v>1540272.5668909654</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15">
       <c r="A239" s="18" t="s">
         <v>13</v>
       </c>
@@ -15057,7 +14817,7 @@
         <v>2661113.8167170309</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15">
       <c r="A240" s="18" t="s">
         <v>13</v>
       </c>
@@ -15104,7 +14864,7 @@
         <v>4494164.4599355869</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15">
       <c r="A241" s="18" t="s">
         <v>13</v>
       </c>
@@ -15151,7 +14911,7 @@
         <v>2214271.0543979951</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15">
       <c r="A242" s="18" t="s">
         <v>13</v>
       </c>
@@ -15198,7 +14958,7 @@
         <v>507764.82482831046</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15">
       <c r="A243" s="18" t="s">
         <v>13</v>
       </c>
@@ -15245,7 +15005,7 @@
         <v>1241843.8423394393</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15">
       <c r="A244" s="18" t="s">
         <v>13</v>
       </c>
@@ -15292,7 +15052,7 @@
         <v>4784244.309645772</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15">
       <c r="A245" s="18" t="s">
         <v>13</v>
       </c>
@@ -15339,7 +15099,7 @@
         <v>3486758.3223854275</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15">
       <c r="A246" s="18" t="s">
         <v>13</v>
       </c>
@@ -15386,7 +15146,7 @@
         <v>13623576.145690599</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15">
       <c r="A247" s="18" t="s">
         <v>13</v>
       </c>
@@ -15433,7 +15193,7 @@
         <v>33480925.597185578</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15">
       <c r="A248" s="18" t="s">
         <v>13</v>
       </c>
@@ -15480,7 +15240,7 @@
         <v>7906473.702996592</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15">
       <c r="A249" s="18" t="s">
         <v>13</v>
       </c>
@@ -15527,7 +15287,7 @@
         <v>1181072.3539264144</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15">
       <c r="A250" s="18" t="s">
         <v>13</v>
       </c>
@@ -15574,7 +15334,7 @@
         <v>7038704.0948873973</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15">
       <c r="A251" s="18" t="s">
         <v>13</v>
       </c>
@@ -15621,7 +15381,7 @@
         <v>1673859.5822452824</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15">
       <c r="A252" s="18" t="s">
         <v>13</v>
       </c>
@@ -15668,7 +15428,7 @@
         <v>29868622.904995278</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15">
       <c r="A253" s="18" t="s">
         <v>13</v>
       </c>
@@ -15715,7 +15475,7 @@
         <v>955673.60671417124</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15">
       <c r="A254" s="18" t="s">
         <v>13</v>
       </c>
@@ -15762,7 +15522,7 @@
         <v>2708192.5315560983</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15">
       <c r="A255" s="18" t="s">
         <v>13</v>
       </c>
@@ -15809,7 +15569,7 @@
         <v>7894561.7537392173</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15">
       <c r="A256" s="18" t="s">
         <v>13</v>
       </c>
@@ -15856,7 +15616,7 @@
         <v>709948.01183659758</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15">
       <c r="A257" s="18" t="s">
         <v>13</v>
       </c>
@@ -15903,7 +15663,7 @@
         <v>2734931.6436228259</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15">
       <c r="A258" s="18" t="s">
         <v>13</v>
       </c>
@@ -15950,7 +15710,7 @@
         <v>705772.3133586949</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15">
       <c r="A259" s="18" t="s">
         <v>13</v>
       </c>
@@ -15997,7 +15757,7 @@
         <v>2718754.0394474068</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15">
       <c r="A260" s="18" t="s">
         <v>13</v>
       </c>
@@ -16044,7 +15804,7 @@
         <v>4472941.376743922</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15">
       <c r="A261" s="18" t="s">
         <v>13</v>
       </c>
@@ -16091,7 +15851,7 @@
         <v>560543.22435218212</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15">
       <c r="A262" s="18" t="s">
         <v>13</v>
       </c>
@@ -16138,7 +15898,7 @@
         <v>2028752.6509382082</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15">
       <c r="A263" s="18" t="s">
         <v>13</v>
       </c>
@@ -16185,7 +15945,7 @@
         <v>708681.44243410067</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15">
       <c r="A264" s="18" t="s">
         <v>13</v>
       </c>
@@ -16232,7 +15992,7 @@
         <v>1823204.0875588099</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15">
       <c r="A265" s="18" t="s">
         <v>13</v>
       </c>
@@ -16279,7 +16039,7 @@
         <v>7699649.5699109752</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15">
       <c r="A266" s="18" t="s">
         <v>13</v>
       </c>
@@ -16326,7 +16086,7 @@
         <v>4624536.5520573845</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15">
       <c r="A267" s="18" t="s">
         <v>13</v>
       </c>
@@ -16373,7 +16133,7 @@
         <v>6205115.9982809229</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15">
       <c r="A268" s="18" t="s">
         <v>13</v>
       </c>
@@ -16420,7 +16180,7 @@
         <v>3384122.2127261818</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15">
       <c r="A269" s="18" t="s">
         <v>13</v>
       </c>
@@ -16467,7 +16227,7 @@
         <v>2631398.499846722</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15">
       <c r="A270" s="18" t="s">
         <v>13</v>
       </c>
@@ -16514,7 +16274,7 @@
         <v>7056385.861611885</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15">
       <c r="A271" s="18" t="s">
         <v>13</v>
       </c>
@@ -16561,7 +16321,7 @@
         <v>1053984.1670909103</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15">
       <c r="A272" s="18" t="s">
         <v>13</v>
       </c>
@@ -16608,7 +16368,7 @@
         <v>5433152.6303811278</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15">
       <c r="A273" s="18" t="s">
         <v>13</v>
       </c>
@@ -16655,7 +16415,7 @@
         <v>2194794.7173278718</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15">
       <c r="A274" s="18" t="s">
         <v>13</v>
       </c>
@@ -16702,7 +16462,7 @@
         <v>2663456.9676654213</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15">
       <c r="A275" s="18" t="s">
         <v>13</v>
       </c>
@@ -16749,7 +16509,7 @@
         <v>2015726.8393079704</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15">
       <c r="A276" s="18" t="s">
         <v>13</v>
       </c>
@@ -16757,10 +16517,10 @@
         <v>831</v>
       </c>
       <c r="C276" s="51" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D276" s="50" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E276" s="51" t="s">
         <v>16</v>
@@ -16796,7 +16556,7 @@
         <v>1163115.9905559358</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15">
       <c r="A277" s="18" t="s">
         <v>13</v>
       </c>
@@ -16804,10 +16564,10 @@
         <v>832</v>
       </c>
       <c r="C277" s="51" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D277" s="50" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E277" s="51" t="s">
         <v>16</v>
@@ -16843,7 +16603,7 @@
         <v>2177910.8645952069</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15">
       <c r="A278" s="19" t="s">
         <v>554</v>
       </c>
@@ -16890,7 +16650,7 @@
         <v>1167173.8087790485</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15">
       <c r="A279" s="19" t="s">
         <v>554</v>
       </c>
@@ -16937,7 +16697,7 @@
         <v>821917.51401581406</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15">
       <c r="A280" s="19" t="s">
         <v>554</v>
       </c>
@@ -16954,7 +16714,7 @@
         <v>557</v>
       </c>
       <c r="F280" s="31" t="s">
-        <v>985</v>
+        <v>905</v>
       </c>
       <c r="G280" s="32">
         <v>4192.0514673427861</v>
@@ -16984,7 +16744,7 @@
         <v>2081131.117879356</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15">
       <c r="A281" s="19" t="s">
         <v>554</v>
       </c>
@@ -17031,7 +16791,7 @@
         <v>6842.0609138203408</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15">
       <c r="A282" s="19" t="s">
         <v>554</v>
       </c>
@@ -17078,7 +16838,7 @@
         <v>1047192.0198235399</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15">
       <c r="A283" s="19" t="s">
         <v>554</v>
       </c>
@@ -17125,7 +16885,7 @@
         <v>1550699.5403523713</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15">
       <c r="A284" s="19" t="s">
         <v>554</v>
       </c>
@@ -17172,7 +16932,7 @@
         <v>2280511.764742156</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15">
       <c r="A285" s="19" t="s">
         <v>554</v>
       </c>
@@ -17219,7 +16979,7 @@
         <v>1838214.0354649797</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15">
       <c r="A286" s="19" t="s">
         <v>554</v>
       </c>
@@ -17266,7 +17026,7 @@
         <v>984625.7766055601</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15">
       <c r="A287" s="19" t="s">
         <v>554</v>
       </c>
@@ -17313,7 +17073,7 @@
         <v>1378066.6709264426</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15">
       <c r="A288" s="19" t="s">
         <v>554</v>
       </c>
@@ -17360,7 +17120,7 @@
         <v>753673.67017006595</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15">
       <c r="A289" s="19" t="s">
         <v>554</v>
       </c>
@@ -17407,7 +17167,7 @@
         <v>396593.84707655763</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15">
       <c r="A290" s="19" t="s">
         <v>554</v>
       </c>
@@ -17454,7 +17214,7 @@
         <v>1350070.9233420484</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15">
       <c r="A291" s="19" t="s">
         <v>554</v>
       </c>
@@ -17501,7 +17261,7 @@
         <v>889588.88340948545</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15">
       <c r="A292" s="19" t="s">
         <v>554</v>
       </c>
@@ -17548,7 +17308,7 @@
         <v>2853286.0202542297</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15">
       <c r="A293" s="19" t="s">
         <v>554</v>
       </c>
@@ -17595,7 +17355,7 @@
         <v>11980069.371032899</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15">
       <c r="A294" s="19" t="s">
         <v>554</v>
       </c>
@@ -17642,7 +17402,7 @@
         <v>1803937.8630747574</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15">
       <c r="A295" s="19" t="s">
         <v>554</v>
       </c>
@@ -17689,7 +17449,7 @@
         <v>766704.30899249518</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15">
       <c r="A296" s="19" t="s">
         <v>554</v>
       </c>
@@ -17736,7 +17496,7 @@
         <v>340288.71842676267</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15">
       <c r="A297" s="19" t="s">
         <v>554</v>
       </c>
@@ -17783,7 +17543,7 @@
         <v>1279317.424873715</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15">
       <c r="A298" s="19" t="s">
         <v>554</v>
       </c>
@@ -17830,7 +17590,7 @@
         <v>1231646.5673706871</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15">
       <c r="A299" s="19" t="s">
         <v>554</v>
       </c>
@@ -17877,7 +17637,7 @@
         <v>10438622.364395289</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15">
       <c r="A300" s="19" t="s">
         <v>554</v>
       </c>
@@ -17924,7 +17684,7 @@
         <v>1157487.8049471541</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15">
       <c r="A301" s="19" t="s">
         <v>554</v>
       </c>
@@ -17971,7 +17731,7 @@
         <v>727117.43980731047</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15">
       <c r="A302" s="19" t="s">
         <v>554</v>
       </c>
@@ -18018,7 +17778,7 @@
         <v>1667100.2728776119</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15">
       <c r="A303" s="19" t="s">
         <v>554</v>
       </c>
@@ -18065,7 +17825,7 @@
         <v>3212643.5969261769</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15">
       <c r="A304" s="19" t="s">
         <v>554</v>
       </c>
@@ -18112,7 +17872,7 @@
         <v>4048992.6245473544</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15">
       <c r="A305" s="19" t="s">
         <v>554</v>
       </c>
@@ -18159,7 +17919,7 @@
         <v>4447266.3037977312</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15">
       <c r="A306" s="19" t="s">
         <v>554</v>
       </c>
@@ -18206,7 +17966,7 @@
         <v>2348712.8775276714</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15">
       <c r="A307" s="19" t="s">
         <v>554</v>
       </c>
@@ -18253,7 +18013,7 @@
         <v>183964.49526628773</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15">
       <c r="A308" s="19" t="s">
         <v>554</v>
       </c>
@@ -18300,7 +18060,7 @@
         <v>1437472.9894341563</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15">
       <c r="A309" s="19" t="s">
         <v>554</v>
       </c>
@@ -18317,7 +18077,7 @@
         <v>557</v>
       </c>
       <c r="F309" s="31" t="s">
-        <v>985</v>
+        <v>905</v>
       </c>
       <c r="G309" s="32">
         <v>3533.4305441835641</v>
@@ -18347,7 +18107,7 @@
         <v>2116277.4759609047</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15">
       <c r="A310" s="19" t="s">
         <v>554</v>
       </c>
@@ -18394,7 +18154,7 @@
         <v>1445980.9622304614</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15">
       <c r="A311" s="19" t="s">
         <v>554</v>
       </c>
@@ -18441,7 +18201,7 @@
         <v>1701565.4791503137</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15">
       <c r="A312" s="19" t="s">
         <v>554</v>
       </c>
@@ -18488,7 +18248,7 @@
         <v>1777738.7715524998</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15">
       <c r="A313" s="19" t="s">
         <v>554</v>
       </c>
@@ -18535,7 +18295,7 @@
         <v>974570.54615928698</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15">
       <c r="A314" s="19" t="s">
         <v>554</v>
       </c>
@@ -18582,7 +18342,7 @@
         <v>3873149.9777270025</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15">
       <c r="A315" s="19" t="s">
         <v>554</v>
       </c>
@@ -18629,7 +18389,7 @@
         <v>2128123.871064797</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15">
       <c r="A316" s="19" t="s">
         <v>554</v>
       </c>
@@ -18676,7 +18436,7 @@
         <v>2034502.4088303726</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15">
       <c r="A317" s="19" t="s">
         <v>554</v>
       </c>
@@ -18693,7 +18453,7 @@
         <v>16</v>
       </c>
       <c r="F317" s="31" t="s">
-        <v>984</v>
+        <v>904</v>
       </c>
       <c r="G317" s="32">
         <v>3426.3277948310388</v>
@@ -18723,7 +18483,7 @@
         <v>1815478.5511615535</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15">
       <c r="A318" s="19" t="s">
         <v>554</v>
       </c>
@@ -18770,7 +18530,7 @@
         <v>2246248.8657674282</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15">
       <c r="A319" s="19" t="s">
         <v>554</v>
       </c>
@@ -18817,7 +18577,7 @@
         <v>771701.81807983771</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15">
       <c r="A320" s="19" t="s">
         <v>554</v>
       </c>
@@ -18864,7 +18624,7 @@
         <v>976640.97117843479</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15">
       <c r="A321" s="19" t="s">
         <v>554</v>
       </c>
@@ -18911,7 +18671,7 @@
         <v>1805245.7249803573</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15">
       <c r="A322" s="19" t="s">
         <v>554</v>
       </c>
@@ -18958,7 +18718,7 @@
         <v>443477.51823543914</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15">
       <c r="A323" s="19" t="s">
         <v>554</v>
       </c>
@@ -19005,7 +18765,7 @@
         <v>384932.07892504166</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15">
       <c r="A324" s="19" t="s">
         <v>554</v>
       </c>
@@ -19052,7 +18812,7 @@
         <v>1735398.2436664214</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15">
       <c r="A325" s="19" t="s">
         <v>554</v>
       </c>
@@ -19099,7 +18859,7 @@
         <v>12291963.979911637</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15">
       <c r="A326" s="19" t="s">
         <v>554</v>
       </c>
@@ -19146,7 +18906,7 @@
         <v>3004286.3480713665</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15">
       <c r="A327" s="19" t="s">
         <v>554</v>
       </c>
@@ -19193,7 +18953,7 @@
         <v>1640297.3238379888</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15">
       <c r="A328" s="19" t="s">
         <v>554</v>
       </c>
@@ -19240,7 +19000,7 @@
         <v>1949718.5606884402</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15">
       <c r="A329" s="19" t="s">
         <v>554</v>
       </c>
@@ -19287,7 +19047,7 @@
         <v>2061276.2407073155</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15">
       <c r="A330" s="19" t="s">
         <v>554</v>
       </c>
@@ -19334,7 +19094,7 @@
         <v>435841.56134020537</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15">
       <c r="A331" s="19" t="s">
         <v>554</v>
       </c>
@@ -19381,7 +19141,7 @@
         <v>2095469.9882450337</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15">
       <c r="A332" s="19" t="s">
         <v>554</v>
       </c>
@@ -19428,7 +19188,7 @@
         <v>1587992.2672358234</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15">
       <c r="A333" s="19" t="s">
         <v>554</v>
       </c>
@@ -19475,7 +19235,7 @@
         <v>1629279.930644036</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15">
       <c r="A334" s="19" t="s">
         <v>554</v>
       </c>
@@ -19522,7 +19282,7 @@
         <v>496919.08829098108</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15">
       <c r="A335" s="19" t="s">
         <v>554</v>
       </c>
@@ -19569,7 +19329,7 @@
         <v>886683.29549250461</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15">
       <c r="A336" s="19" t="s">
         <v>554</v>
       </c>
@@ -19616,7 +19376,7 @@
         <v>539191.54217541509</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15">
       <c r="A337" s="19" t="s">
         <v>554</v>
       </c>
@@ -19663,7 +19423,7 @@
         <v>997076.15432180814</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15">
       <c r="A338" s="19" t="s">
         <v>554</v>
       </c>
@@ -19710,7 +19470,7 @@
         <v>721286.78315992339</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15">
       <c r="A339" s="19" t="s">
         <v>554</v>
       </c>
@@ -19757,7 +19517,7 @@
         <v>6209630.317709865</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15">
       <c r="A340" s="19" t="s">
         <v>554</v>
       </c>
@@ -19804,7 +19564,7 @@
         <v>1188188.1998591973</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15">
       <c r="A341" s="19" t="s">
         <v>554</v>
       </c>
@@ -19851,7 +19611,7 @@
         <v>1532791.7511825641</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15">
       <c r="A342" s="19" t="s">
         <v>554</v>
       </c>
@@ -19898,7 +19658,7 @@
         <v>2724966.0039763995</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15">
       <c r="A343" s="19" t="s">
         <v>554</v>
       </c>
@@ -19945,7 +19705,7 @@
         <v>314603.2830556744</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15">
       <c r="A344" s="19" t="s">
         <v>554</v>
       </c>
@@ -19992,7 +19752,7 @@
         <v>886919.39600392629</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15">
       <c r="A345" s="19" t="s">
         <v>554</v>
       </c>
@@ -20039,7 +19799,7 @@
         <v>2241737.7245399901</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15">
       <c r="A346" s="19" t="s">
         <v>554</v>
       </c>
@@ -20086,7 +19846,7 @@
         <v>572880.8461267805</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15">
       <c r="A347" s="19" t="s">
         <v>554</v>
       </c>
@@ -20133,7 +19893,7 @@
         <v>1104024.6975664133</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15">
       <c r="A348" s="19" t="s">
         <v>554</v>
       </c>
@@ -20180,7 +19940,7 @@
         <v>1158467.358005303</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15">
       <c r="A349" s="19" t="s">
         <v>554</v>
       </c>
@@ -20227,7 +19987,7 @@
         <v>869833.85007488588</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15">
       <c r="A350" s="19" t="s">
         <v>554</v>
       </c>
@@ -20274,7 +20034,7 @@
         <v>2434923.1528860028</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15">
       <c r="A351" s="19" t="s">
         <v>554</v>
       </c>
@@ -20321,7 +20081,7 @@
         <v>413924.41397174244</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15">
       <c r="A352" s="19" t="s">
         <v>554</v>
       </c>
@@ -20368,7 +20128,7 @@
         <v>860347.13101018604</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15">
       <c r="A353" s="19" t="s">
         <v>554</v>
       </c>
@@ -20415,7 +20175,7 @@
         <v>5132396.0550269438</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15">
       <c r="A354" s="19" t="s">
         <v>554</v>
       </c>
@@ -20462,7 +20222,7 @@
         <v>2678671.8789525218</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15">
       <c r="A355" s="19" t="s">
         <v>554</v>
       </c>
@@ -20509,7 +20269,7 @@
         <v>4551301.8902112087</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15">
       <c r="A356" s="19" t="s">
         <v>554</v>
       </c>
@@ -20556,7 +20316,7 @@
         <v>4601310.834742575</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15">
       <c r="A357" s="19" t="s">
         <v>554</v>
       </c>
@@ -20603,7 +20363,7 @@
         <v>1682406.2989188663</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15">
       <c r="A358" s="19" t="s">
         <v>554</v>
       </c>
@@ -20650,7 +20410,7 @@
         <v>831677.65085034235</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15">
       <c r="A359" s="19" t="s">
         <v>554</v>
       </c>
@@ -20697,7 +20457,7 @@
         <v>412311.71445480711</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15">
       <c r="A360" s="19" t="s">
         <v>554</v>
       </c>
@@ -20744,7 +20504,7 @@
         <v>284940.25425461831</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15">
       <c r="A361" s="19" t="s">
         <v>554</v>
       </c>
@@ -20791,7 +20551,7 @@
         <v>950085.09075420967</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15">
       <c r="A362" s="19" t="s">
         <v>554</v>
       </c>
@@ -20838,7 +20598,7 @@
         <v>693973.73185933649</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15">
       <c r="A363" s="19" t="s">
         <v>554</v>
       </c>
@@ -20885,7 +20645,7 @@
         <v>893897.28323243931</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15">
       <c r="A364" s="19" t="s">
         <v>554</v>
       </c>
@@ -20932,7 +20692,7 @@
         <v>695033.17864198494</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15">
       <c r="A365" s="19" t="s">
         <v>554</v>
       </c>
@@ -20979,7 +20739,7 @@
         <v>1176524.5053566936</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15">
       <c r="A366" s="19" t="s">
         <v>554</v>
       </c>
@@ -21026,7 +20786,7 @@
         <v>440025.2204491052</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15">
       <c r="A367" s="19" t="s">
         <v>554</v>
       </c>
@@ -21073,7 +20833,7 @@
         <v>11121977.923343284</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15">
       <c r="A368" s="19" t="s">
         <v>554</v>
       </c>
@@ -21120,7 +20880,7 @@
         <v>2939843.6544989496</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15">
       <c r="A369" s="19" t="s">
         <v>554</v>
       </c>
@@ -21167,7 +20927,7 @@
         <v>1456686.2014811595</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15">
       <c r="A370" s="19" t="s">
         <v>554</v>
       </c>
@@ -21214,7 +20974,7 @@
         <v>466659.5274394991</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15">
       <c r="A371" s="19" t="s">
         <v>554</v>
       </c>
@@ -21261,7 +21021,7 @@
         <v>671342.4231590589</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15">
       <c r="A372" s="19" t="s">
         <v>554</v>
       </c>
@@ -21308,7 +21068,7 @@
         <v>318550.88966228795</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15">
       <c r="A373" s="19" t="s">
         <v>554</v>
       </c>
@@ -21355,7 +21115,7 @@
         <v>1169992.4162632779</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15">
       <c r="A374" s="19" t="s">
         <v>554</v>
       </c>
@@ -21402,7 +21162,7 @@
         <v>2702321.6096595917</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15">
       <c r="A375" s="19" t="s">
         <v>554</v>
       </c>
@@ -21449,7 +21209,7 @@
         <v>877302.83869495708</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15">
       <c r="A376" s="19" t="s">
         <v>554</v>
       </c>
@@ -21496,7 +21256,7 @@
         <v>455293.07767160097</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15">
       <c r="A377" s="19" t="s">
         <v>554</v>
       </c>
@@ -21543,7 +21303,7 @@
         <v>890743.00552055344</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15">
       <c r="A378" s="19" t="s">
         <v>554</v>
       </c>
@@ -21590,7 +21350,7 @@
         <v>1340833.6884858676</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15">
       <c r="A379" s="19" t="s">
         <v>554</v>
       </c>
@@ -21637,7 +21397,7 @@
         <v>971403.52611316019</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15">
       <c r="A380" s="19" t="s">
         <v>554</v>
       </c>
@@ -21684,7 +21444,7 @@
         <v>1135592.2081376777</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15">
       <c r="A381" s="19" t="s">
         <v>554</v>
       </c>
@@ -21731,7 +21491,7 @@
         <v>988832.94055515749</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15">
       <c r="A382" s="19" t="s">
         <v>554</v>
       </c>
@@ -21778,7 +21538,7 @@
         <v>2076216.1813875362</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15">
       <c r="A383" s="19" t="s">
         <v>554</v>
       </c>
@@ -21825,7 +21585,7 @@
         <v>2293961.577484699</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15">
       <c r="A384" s="19" t="s">
         <v>554</v>
       </c>
@@ -21872,7 +21632,7 @@
         <v>3117436.6432753517</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15">
       <c r="A385" s="19" t="s">
         <v>554</v>
       </c>
@@ -21919,7 +21679,7 @@
         <v>1161269.0059564463</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15">
       <c r="A386" s="19" t="s">
         <v>554</v>
       </c>
@@ -21966,7 +21726,7 @@
         <v>7576024.5996738803</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15">
       <c r="A387" s="19" t="s">
         <v>554</v>
       </c>
@@ -22013,7 +21773,7 @@
         <v>6074653.1078886557</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15">
       <c r="A388" s="19" t="s">
         <v>554</v>
       </c>
@@ -22060,7 +21820,7 @@
         <v>1242080.1652555042</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15">
       <c r="A389" s="19" t="s">
         <v>554</v>
       </c>
@@ -22107,7 +21867,7 @@
         <v>631946.35906693304</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15">
       <c r="A390" s="20" t="s">
         <v>652</v>
       </c>
@@ -22154,7 +21914,7 @@
         <v>796341.88933220634</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15">
       <c r="A391" s="20" t="s">
         <v>652</v>
       </c>
@@ -22201,7 +21961,7 @@
         <v>1131935.3823949802</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15">
       <c r="A392" s="20" t="s">
         <v>652</v>
       </c>
@@ -22248,7 +22008,7 @@
         <v>12475324.230318941</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15">
       <c r="A393" s="20" t="s">
         <v>652</v>
       </c>
@@ -22295,7 +22055,7 @@
         <v>1373475.608358172</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15">
       <c r="A394" s="20" t="s">
         <v>652</v>
       </c>
@@ -22342,7 +22102,7 @@
         <v>287548.03078696143</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15">
       <c r="A395" s="20" t="s">
         <v>652</v>
       </c>
@@ -22389,7 +22149,7 @@
         <v>1097865.3246600707</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15">
       <c r="A396" s="20" t="s">
         <v>652</v>
       </c>
@@ -22436,7 +22196,7 @@
         <v>1655933.8429143128</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15">
       <c r="A397" s="20" t="s">
         <v>652</v>
       </c>
@@ -22483,7 +22243,7 @@
         <v>6634865.2510535205</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15">
       <c r="A398" s="20" t="s">
         <v>652</v>
       </c>
@@ -22530,7 +22290,7 @@
         <v>13622167.938629847</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15">
       <c r="A399" s="20" t="s">
         <v>652</v>
       </c>
@@ -22577,7 +22337,7 @@
         <v>2260968.5176163218</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15">
       <c r="A400" s="20" t="s">
         <v>652</v>
       </c>
@@ -22624,7 +22384,7 @@
         <v>2065444.7279103342</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15">
       <c r="A401" s="20" t="s">
         <v>652</v>
       </c>
@@ -22671,7 +22431,7 @@
         <v>3920657.7421114035</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15">
       <c r="A402" s="20" t="s">
         <v>652</v>
       </c>
@@ -22718,7 +22478,7 @@
         <v>1138663.9242494793</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15">
       <c r="A403" s="20" t="s">
         <v>652</v>
       </c>
@@ -22765,7 +22525,7 @@
         <v>1766459.0808148375</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15">
       <c r="A404" s="20" t="s">
         <v>652</v>
       </c>
@@ -22812,7 +22572,7 @@
         <v>1447471.7907047006</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15">
       <c r="A405" s="20" t="s">
         <v>652</v>
       </c>
@@ -22859,7 +22619,7 @@
         <v>2333112.4919172777</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15">
       <c r="A406" s="20" t="s">
         <v>652</v>
       </c>
@@ -22906,7 +22666,7 @@
         <v>884912.30626648106</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15">
       <c r="A407" s="20" t="s">
         <v>652</v>
       </c>
@@ -22953,7 +22713,7 @@
         <v>1095623.7050702623</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15">
       <c r="A408" s="20" t="s">
         <v>652</v>
       </c>
@@ -23000,7 +22760,7 @@
         <v>2725047.4392468398</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15">
       <c r="A409" s="20" t="s">
         <v>652</v>
       </c>
@@ -23047,7 +22807,7 @@
         <v>3857997.7946118768</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15">
       <c r="A410" s="20" t="s">
         <v>652</v>
       </c>
@@ -23094,7 +22854,7 @@
         <v>1514371.7124878776</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15">
       <c r="A411" s="20" t="s">
         <v>652</v>
       </c>
@@ -23141,7 +22901,7 @@
         <v>1237800.6308372845</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15">
       <c r="A412" s="20" t="s">
         <v>652</v>
       </c>
@@ -23188,7 +22948,7 @@
         <v>2768650.3803997412</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15">
       <c r="A413" s="20" t="s">
         <v>652</v>
       </c>
@@ -23235,7 +22995,7 @@
         <v>4701184.6140862498</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15">
       <c r="A414" s="20" t="s">
         <v>652</v>
       </c>
@@ -23282,7 +23042,7 @@
         <v>4798610.4328946685</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15">
       <c r="A415" s="20" t="s">
         <v>652</v>
       </c>
@@ -23329,7 +23089,7 @@
         <v>1601327.6840111224</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15">
       <c r="A416" s="20" t="s">
         <v>652</v>
       </c>
@@ -23376,7 +23136,7 @@
         <v>1142393.1836158202</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15">
       <c r="A417" s="20" t="s">
         <v>652</v>
       </c>
@@ -23423,7 +23183,7 @@
         <v>1794022.1157341469</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15">
       <c r="A418" s="20" t="s">
         <v>652</v>
       </c>
@@ -23470,7 +23230,7 @@
         <v>825603.88042431651</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15">
       <c r="A419" s="20" t="s">
         <v>652</v>
       </c>
@@ -23517,7 +23277,7 @@
         <v>1381286.5790008928</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15">
       <c r="A420" s="20" t="s">
         <v>652</v>
       </c>
@@ -23564,7 +23324,7 @@
         <v>614842.88646687986</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15">
       <c r="A421" s="20" t="s">
         <v>652</v>
       </c>
@@ -23611,7 +23371,7 @@
         <v>798208.20194828906</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15">
       <c r="A422" s="20" t="s">
         <v>652</v>
       </c>
@@ -23658,7 +23418,7 @@
         <v>2286632.0114000081</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15">
       <c r="A423" s="20" t="s">
         <v>652</v>
       </c>
@@ -23705,7 +23465,7 @@
         <v>4667783.0795315746</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15">
       <c r="A424" s="20" t="s">
         <v>652</v>
       </c>
@@ -23752,7 +23512,7 @@
         <v>2497385.5787174231</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15">
       <c r="A425" s="20" t="s">
         <v>652</v>
       </c>
@@ -23799,7 +23559,7 @@
         <v>970623.47340395162</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15">
       <c r="A426" s="20" t="s">
         <v>652</v>
       </c>
@@ -23846,7 +23606,7 @@
         <v>9977027.9554970358</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15">
       <c r="A427" s="20" t="s">
         <v>652</v>
       </c>
@@ -23893,7 +23653,7 @@
         <v>888437.72947396012</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15">
       <c r="A428" s="20" t="s">
         <v>652</v>
       </c>
@@ -23940,7 +23700,7 @@
         <v>2623668.09048315</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15">
       <c r="A429" s="20" t="s">
         <v>652</v>
       </c>
@@ -23987,7 +23747,7 @@
         <v>2401001.1137988544</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15">
       <c r="A430" s="20" t="s">
         <v>652</v>
       </c>
@@ -24034,7 +23794,7 @@
         <v>2005601.9844885268</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15">
       <c r="A431" s="20" t="s">
         <v>652</v>
       </c>
@@ -24081,7 +23841,7 @@
         <v>1329825.7177798618</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15">
       <c r="A432" s="20" t="s">
         <v>652</v>
       </c>
@@ -24128,7 +23888,7 @@
         <v>1505609.0611153771</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15">
       <c r="A433" s="20" t="s">
         <v>652</v>
       </c>
@@ -24175,7 +23935,7 @@
         <v>3049241.7011760459</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15">
       <c r="A434" s="20" t="s">
         <v>652</v>
       </c>
@@ -24222,7 +23982,7 @@
         <v>8491603.9910553861</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15">
       <c r="A435" s="21" t="s">
         <v>870</v>
       </c>
@@ -24269,7 +24029,7 @@
         <v>316256.87364401802</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15">
       <c r="A436" s="21" t="s">
         <v>870</v>
       </c>
@@ -24316,7 +24076,7 @@
         <v>1390728.1069316743</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15">
       <c r="A437" s="21" t="s">
         <v>870</v>
       </c>
@@ -24324,10 +24084,10 @@
         <v>3176</v>
       </c>
       <c r="C437" s="40" t="s">
+        <v>888</v>
+      </c>
+      <c r="D437" s="49" t="s">
         <v>889</v>
-      </c>
-      <c r="D437" s="49" t="s">
-        <v>890</v>
       </c>
       <c r="E437" s="40" t="s">
         <v>16</v>
@@ -24363,7 +24123,7 @@
         <v>894324.63690305594</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15">
       <c r="A438" s="21" t="s">
         <v>870</v>
       </c>
@@ -24410,7 +24170,7 @@
         <v>2396449.8392972546</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15">
       <c r="A439" s="21" t="s">
         <v>870</v>
       </c>
@@ -24457,7 +24217,7 @@
         <v>1372460.6629006166</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15">
       <c r="A440" s="21" t="s">
         <v>870</v>
       </c>
@@ -24504,7 +24264,7 @@
         <v>2548488.5543772234</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15">
       <c r="A441" s="21" t="s">
         <v>870</v>
       </c>
@@ -24551,7 +24311,7 @@
         <v>1533724.5787648563</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15">
       <c r="A442" s="21" t="s">
         <v>870</v>
       </c>
@@ -24598,7 +24358,7 @@
         <v>2145175.5226734243</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15">
       <c r="A443" s="21" t="s">
         <v>870</v>
       </c>
@@ -24645,7 +24405,7 @@
         <v>576380.44638522749</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15">
       <c r="A444" s="21" t="s">
         <v>870</v>
       </c>
@@ -24692,7 +24452,7 @@
         <v>1760137.9450621733</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15">
       <c r="A445" s="21" t="s">
         <v>870</v>
       </c>
@@ -24739,7 +24499,7 @@
         <v>1620175.6489936511</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15">
       <c r="A446" s="21" t="s">
         <v>870</v>
       </c>
@@ -24782,7 +24542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15">
       <c r="A447" s="21" t="s">
         <v>870</v>
       </c>
@@ -24790,10 +24550,10 @@
         <v>9846</v>
       </c>
       <c r="C447" s="40" t="s">
+        <v>884</v>
+      </c>
+      <c r="D447" s="49" t="s">
         <v>885</v>
-      </c>
-      <c r="D447" s="49" t="s">
-        <v>886</v>
       </c>
       <c r="E447" s="40" t="s">
         <v>751</v>
@@ -24829,7 +24589,7 @@
         <v>260928.22418192896</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15">
       <c r="A448" s="21" t="s">
         <v>870</v>
       </c>
@@ -24876,7 +24636,7 @@
         <v>723162.11211244843</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15">
       <c r="A449" s="21" t="s">
         <v>870</v>
       </c>
@@ -24923,7 +24683,7 @@
         <v>4106401.6408912842</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15">
       <c r="A450" s="21" t="s">
         <v>870</v>
       </c>
@@ -24970,7 +24730,7 @@
         <v>182116.91328321822</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15">
       <c r="A451" s="21" t="s">
         <v>870</v>
       </c>
@@ -25017,7 +24777,7 @@
         <v>565433.5242891087</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15">
       <c r="A452" s="21" t="s">
         <v>870</v>
       </c>
@@ -25064,7 +24824,7 @@
         <v>10251277.719186567</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15">
       <c r="A453" s="21" t="s">
         <v>870</v>
       </c>
@@ -25111,7 +24871,7 @@
         <v>1964707.028787673</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15">
       <c r="A454" s="21" t="s">
         <v>870</v>
       </c>
@@ -25158,7 +24918,7 @@
         <v>1781334.4845541005</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15">
       <c r="A455" s="21" t="s">
         <v>870</v>
       </c>
@@ -25205,7 +24965,7 @@
         <v>1316546.4966856588</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15">
       <c r="A456" s="21" t="s">
         <v>870</v>
       </c>
@@ -25252,7 +25012,7 @@
         <v>8513238.4768106546</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15">
       <c r="A457" s="21" t="s">
         <v>870</v>
       </c>
@@ -25299,7 +25059,7 @@
         <v>1544095.4859683902</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15">
       <c r="A458" s="21" t="s">
         <v>870</v>
       </c>
@@ -25346,7 +25106,7 @@
         <v>5506234.9507801617</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15">
       <c r="A459" s="21" t="s">
         <v>870</v>
       </c>
@@ -25393,7 +25153,7 @@
         <v>2046889.044655205</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15">
       <c r="A460" s="21" t="s">
         <v>870</v>
       </c>
@@ -25440,7 +25200,7 @@
         <v>1493660.0069181381</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15">
       <c r="A461" s="21" t="s">
         <v>870</v>
       </c>
@@ -25487,7 +25247,7 @@
         <v>2170889.493160767</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15">
       <c r="A462" s="21" t="s">
         <v>870</v>
       </c>
@@ -25534,7 +25294,7 @@
         <v>2294079.1125504631</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15">
       <c r="A463" s="21" t="s">
         <v>870</v>
       </c>
@@ -25581,7 +25341,7 @@
         <v>13233566.827173166</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15">
       <c r="A464" s="21" t="s">
         <v>870</v>
       </c>
@@ -25589,10 +25349,10 @@
         <v>3151</v>
       </c>
       <c r="C464" s="40" t="s">
+        <v>890</v>
+      </c>
+      <c r="D464" s="49" t="s">
         <v>891</v>
-      </c>
-      <c r="D464" s="49" t="s">
-        <v>892</v>
       </c>
       <c r="E464" s="40" t="s">
         <v>16</v>
@@ -25628,7 +25388,7 @@
         <v>266945.12950641761</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15">
       <c r="A465" s="21" t="s">
         <v>870</v>
       </c>
@@ -25636,10 +25396,10 @@
         <v>3155</v>
       </c>
       <c r="C465" s="40" t="s">
+        <v>892</v>
+      </c>
+      <c r="D465" s="49" t="s">
         <v>893</v>
-      </c>
-      <c r="D465" s="49" t="s">
-        <v>894</v>
       </c>
       <c r="E465" s="40" t="s">
         <v>751</v>
@@ -25675,7 +25435,7 @@
         <v>837724.96994404739</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15">
       <c r="A466" s="21" t="s">
         <v>870</v>
       </c>
@@ -25683,10 +25443,10 @@
         <v>3174</v>
       </c>
       <c r="C466" s="40" t="s">
+        <v>886</v>
+      </c>
+      <c r="D466" s="49" t="s">
         <v>887</v>
-      </c>
-      <c r="D466" s="49" t="s">
-        <v>888</v>
       </c>
       <c r="E466" s="40" t="s">
         <v>16</v>
@@ -25722,7 +25482,7 @@
         <v>1361605.3717408758</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15">
       <c r="A467" s="52" t="s">
         <v>870</v>
       </c>
@@ -25769,1838 +25529,668 @@
         <v>908452.65692143072</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A468" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B468" s="58">
-        <v>9441</v>
-      </c>
-      <c r="C468" s="59" t="s">
-        <v>903</v>
-      </c>
-      <c r="D468" s="59" t="s">
-        <v>942</v>
-      </c>
-      <c r="E468" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F468" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G468" s="60">
-        <v>1245</v>
-      </c>
-      <c r="H468" s="60">
-        <v>1245</v>
-      </c>
-      <c r="I468" s="60">
-        <v>892</v>
-      </c>
-      <c r="J468" s="60">
-        <v>503</v>
-      </c>
-      <c r="K468" s="60">
-        <v>1133.5</v>
-      </c>
-      <c r="L468" s="60">
-        <v>1133.5</v>
-      </c>
-      <c r="M468" s="60">
-        <v>807</v>
-      </c>
-      <c r="N468" s="60">
-        <v>488.5</v>
-      </c>
-      <c r="O468" s="61">
-        <v>593586.84264434082</v>
-      </c>
-    </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A469" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B469" s="58">
-        <v>9440</v>
-      </c>
-      <c r="C469" s="59" t="s">
-        <v>904</v>
-      </c>
-      <c r="D469" s="59" t="s">
-        <v>943</v>
-      </c>
-      <c r="E469" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F469" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G469" s="60">
-        <v>1918.5</v>
-      </c>
-      <c r="H469" s="60">
-        <v>1918.5</v>
-      </c>
-      <c r="I469" s="60">
-        <v>1710.5</v>
-      </c>
-      <c r="J469" s="60">
-        <v>1049</v>
-      </c>
-      <c r="K469" s="60">
-        <v>1551.5</v>
-      </c>
-      <c r="L469" s="60">
-        <v>1551.5</v>
-      </c>
-      <c r="M469" s="60">
-        <v>1338</v>
-      </c>
-      <c r="N469" s="60">
-        <v>897</v>
-      </c>
-      <c r="O469" s="61">
-        <v>909511.15720129432</v>
-      </c>
-    </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A470" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B470" s="58">
-        <v>9442</v>
-      </c>
-      <c r="C470" s="59" t="s">
-        <v>905</v>
-      </c>
-      <c r="D470" s="59" t="s">
-        <v>944</v>
-      </c>
-      <c r="E470" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F470" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G470" s="60">
-        <v>1648.5</v>
-      </c>
-      <c r="H470" s="60">
-        <v>1648.5</v>
-      </c>
-      <c r="I470" s="60">
-        <v>2298.5</v>
-      </c>
-      <c r="J470" s="60">
-        <v>1508.5</v>
-      </c>
-      <c r="K470" s="60">
-        <v>1800.5</v>
-      </c>
-      <c r="L470" s="60">
-        <v>1800.5</v>
-      </c>
-      <c r="M470" s="60">
-        <v>2541</v>
-      </c>
-      <c r="N470" s="60">
-        <v>1595.5</v>
-      </c>
-      <c r="O470" s="61">
-        <v>1025273.4132858108</v>
-      </c>
-    </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A471" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B471" s="58">
-        <v>9443</v>
-      </c>
-      <c r="C471" s="59" t="s">
-        <v>906</v>
-      </c>
-      <c r="D471" s="59" t="s">
-        <v>945</v>
-      </c>
-      <c r="E471" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F471" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G471" s="60">
-        <v>1489.5</v>
-      </c>
-      <c r="H471" s="60">
-        <v>1489.5</v>
-      </c>
-      <c r="I471" s="60">
-        <v>1326</v>
-      </c>
-      <c r="J471" s="60">
-        <v>760</v>
-      </c>
-      <c r="K471" s="60">
-        <v>1226.5</v>
-      </c>
-      <c r="L471" s="60">
-        <v>1226.5</v>
-      </c>
-      <c r="M471" s="60">
-        <v>1096</v>
-      </c>
-      <c r="N471" s="60">
-        <v>710</v>
-      </c>
-      <c r="O471" s="61">
-        <v>711180.77999601758</v>
-      </c>
-    </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A472" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B472" s="58">
-        <v>9444</v>
-      </c>
-      <c r="C472" s="59" t="s">
-        <v>907</v>
-      </c>
-      <c r="D472" s="59" t="s">
-        <v>946</v>
-      </c>
-      <c r="E472" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F472" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G472" s="60">
-        <v>177.5</v>
-      </c>
-      <c r="H472" s="60">
-        <v>177.5</v>
-      </c>
-      <c r="I472" s="60">
-        <v>161.5</v>
-      </c>
-      <c r="J472" s="60">
-        <v>100.5</v>
-      </c>
-      <c r="K472" s="60">
-        <v>102.5</v>
-      </c>
-      <c r="L472" s="60">
-        <v>102.5</v>
-      </c>
-      <c r="M472" s="60">
-        <v>119</v>
-      </c>
-      <c r="N472" s="60">
-        <v>66</v>
-      </c>
-      <c r="O472" s="61">
-        <v>75180.340009881198</v>
-      </c>
-    </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A473" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B473" s="58">
-        <v>9445</v>
-      </c>
-      <c r="C473" s="59" t="s">
-        <v>908</v>
-      </c>
-      <c r="D473" s="59" t="s">
-        <v>947</v>
-      </c>
-      <c r="E473" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F473" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G473" s="60">
-        <v>1431.5</v>
-      </c>
-      <c r="H473" s="60">
-        <v>1431.5</v>
-      </c>
-      <c r="I473" s="60">
-        <v>1318</v>
-      </c>
-      <c r="J473" s="60">
-        <v>908</v>
-      </c>
-      <c r="K473" s="60">
-        <v>2089.5</v>
-      </c>
-      <c r="L473" s="60">
-        <v>2089.5</v>
-      </c>
-      <c r="M473" s="60">
-        <v>2126.5</v>
-      </c>
-      <c r="N473" s="60">
-        <v>1415</v>
-      </c>
-      <c r="O473" s="61">
-        <v>951354.89814886218</v>
-      </c>
-    </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A474" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B474" s="58">
-        <v>9446</v>
-      </c>
-      <c r="C474" s="59" t="s">
-        <v>909</v>
-      </c>
-      <c r="D474" s="59" t="s">
-        <v>948</v>
-      </c>
-      <c r="E474" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F474" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G474" s="60">
-        <v>461.5</v>
-      </c>
-      <c r="H474" s="60">
-        <v>461.5</v>
-      </c>
-      <c r="I474" s="60">
-        <v>383</v>
-      </c>
-      <c r="J474" s="60">
-        <v>211</v>
-      </c>
-      <c r="K474" s="60">
-        <v>448</v>
-      </c>
-      <c r="L474" s="60">
-        <v>448</v>
-      </c>
-      <c r="M474" s="60">
-        <v>383</v>
-      </c>
-      <c r="N474" s="60">
-        <v>249.5</v>
-      </c>
-      <c r="O474" s="61">
-        <v>235025.05859071689</v>
-      </c>
-    </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A475" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B475" s="58">
-        <v>9449</v>
-      </c>
-      <c r="C475" s="59" t="s">
-        <v>910</v>
-      </c>
-      <c r="D475" s="59" t="s">
-        <v>949</v>
-      </c>
-      <c r="E475" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F475" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G475" s="60">
-        <v>373.5</v>
-      </c>
-      <c r="H475" s="60">
-        <v>373.5</v>
-      </c>
-      <c r="I475" s="60">
-        <v>263.5</v>
-      </c>
-      <c r="J475" s="60">
-        <v>123</v>
-      </c>
-      <c r="K475" s="60">
-        <v>413</v>
-      </c>
-      <c r="L475" s="60">
-        <v>413</v>
-      </c>
-      <c r="M475" s="60">
-        <v>252</v>
-      </c>
-      <c r="N475" s="60">
-        <v>151</v>
-      </c>
-      <c r="O475" s="61">
-        <v>192204.42096733028</v>
-      </c>
-    </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A476" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B476" s="58">
-        <v>9450</v>
-      </c>
-      <c r="C476" s="59" t="s">
-        <v>911</v>
-      </c>
-      <c r="D476" s="59" t="s">
-        <v>950</v>
-      </c>
-      <c r="E476" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F476" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G476" s="60">
-        <v>785.5</v>
-      </c>
-      <c r="H476" s="60">
-        <v>785.5</v>
-      </c>
-      <c r="I476" s="60">
-        <v>522.5</v>
-      </c>
-      <c r="J476" s="60">
-        <v>358</v>
-      </c>
-      <c r="K476" s="60">
-        <v>836.5</v>
-      </c>
-      <c r="L476" s="60">
-        <v>836.5</v>
-      </c>
-      <c r="M476" s="60">
-        <v>545</v>
-      </c>
-      <c r="N476" s="60">
-        <v>356</v>
-      </c>
-      <c r="O476" s="61">
-        <v>402623.89453586354</v>
-      </c>
-    </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A477" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B477" s="58">
-        <v>9454</v>
-      </c>
-      <c r="C477" s="59" t="s">
-        <v>912</v>
-      </c>
-      <c r="D477" s="59" t="s">
-        <v>951</v>
-      </c>
-      <c r="E477" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F477" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G477" s="60">
-        <v>372</v>
-      </c>
-      <c r="H477" s="60">
-        <v>372</v>
-      </c>
-      <c r="I477" s="60">
-        <v>353</v>
-      </c>
-      <c r="J477" s="60">
-        <v>205</v>
-      </c>
-      <c r="K477" s="60">
-        <v>288</v>
-      </c>
-      <c r="L477" s="60">
-        <v>288</v>
-      </c>
-      <c r="M477" s="60">
-        <v>276.5</v>
-      </c>
-      <c r="N477" s="60">
-        <v>153</v>
-      </c>
-      <c r="O477" s="61">
-        <v>174518.52073219582</v>
-      </c>
-    </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A478" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B478" s="58">
-        <v>9459</v>
-      </c>
-      <c r="C478" s="59" t="s">
-        <v>913</v>
-      </c>
-      <c r="D478" s="59" t="s">
-        <v>952</v>
-      </c>
-      <c r="E478" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F478" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G478" s="60">
-        <v>1175</v>
-      </c>
-      <c r="H478" s="60">
-        <v>1175</v>
-      </c>
-      <c r="I478" s="60">
-        <v>957</v>
-      </c>
-      <c r="J478" s="60">
-        <v>671</v>
-      </c>
-      <c r="K478" s="60">
-        <v>939.5</v>
-      </c>
-      <c r="L478" s="60">
-        <v>939.5</v>
-      </c>
-      <c r="M478" s="60">
-        <v>753</v>
-      </c>
-      <c r="N478" s="60">
-        <v>556.5</v>
-      </c>
-      <c r="O478" s="61">
-        <v>549911.42042961298</v>
-      </c>
-    </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A479" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B479" s="58">
-        <v>9488</v>
-      </c>
-      <c r="C479" s="59" t="s">
-        <v>914</v>
-      </c>
-      <c r="D479" s="59" t="s">
-        <v>953</v>
-      </c>
-      <c r="E479" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F479" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G479" s="60">
-        <v>1001.5</v>
-      </c>
-      <c r="H479" s="60">
-        <v>1001.5</v>
-      </c>
-      <c r="I479" s="60">
-        <v>870</v>
-      </c>
-      <c r="J479" s="60">
-        <v>568</v>
-      </c>
-      <c r="K479" s="60">
-        <v>1469.5</v>
-      </c>
-      <c r="L479" s="60">
-        <v>1469.5</v>
-      </c>
-      <c r="M479" s="60">
-        <v>1659</v>
-      </c>
-      <c r="N479" s="60">
-        <v>949.5</v>
-      </c>
-      <c r="O479" s="61">
-        <v>667607.11785168736</v>
-      </c>
-    </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A480" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B480" s="58">
-        <v>9460</v>
-      </c>
-      <c r="C480" s="59" t="s">
-        <v>915</v>
-      </c>
-      <c r="D480" s="59" t="s">
-        <v>954</v>
-      </c>
-      <c r="E480" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F480" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G480" s="60">
-        <v>3014</v>
-      </c>
-      <c r="H480" s="60">
-        <v>3014</v>
-      </c>
-      <c r="I480" s="60">
-        <v>2832.5</v>
-      </c>
-      <c r="J480" s="60">
-        <v>1799.5</v>
-      </c>
-      <c r="K480" s="60">
-        <v>1839</v>
-      </c>
-      <c r="L480" s="60">
-        <v>1839</v>
-      </c>
-      <c r="M480" s="60">
-        <v>1656.5</v>
-      </c>
-      <c r="N480" s="60">
-        <v>1070</v>
-      </c>
-      <c r="O480" s="61">
-        <v>1287203.8344897013</v>
-      </c>
-    </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A481" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B481" s="58">
-        <v>9464</v>
-      </c>
-      <c r="C481" s="59" t="s">
-        <v>916</v>
-      </c>
-      <c r="D481" s="59" t="s">
-        <v>955</v>
-      </c>
-      <c r="E481" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F481" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G481" s="60">
-        <v>278</v>
-      </c>
-      <c r="H481" s="60">
-        <v>278</v>
-      </c>
-      <c r="I481" s="60">
-        <v>183.5</v>
-      </c>
-      <c r="J481" s="60">
-        <v>94.5</v>
-      </c>
-      <c r="K481" s="60">
-        <v>261.5</v>
-      </c>
-      <c r="L481" s="60">
-        <v>261.5</v>
-      </c>
-      <c r="M481" s="60">
-        <v>166.5</v>
-      </c>
-      <c r="N481" s="60">
-        <v>119</v>
-      </c>
-      <c r="O481" s="61">
-        <v>132735.83582686659</v>
-      </c>
-    </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A482" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B482" s="58">
-        <v>9468</v>
-      </c>
-      <c r="C482" s="59" t="s">
-        <v>917</v>
-      </c>
-      <c r="D482" s="59" t="s">
-        <v>956</v>
-      </c>
-      <c r="E482" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F482" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G482" s="60">
-        <v>515.5</v>
-      </c>
-      <c r="H482" s="60">
-        <v>515.5</v>
-      </c>
-      <c r="I482" s="60">
-        <v>291</v>
-      </c>
-      <c r="J482" s="60">
-        <v>215.5</v>
-      </c>
-      <c r="K482" s="60">
-        <v>601.5</v>
-      </c>
-      <c r="L482" s="60">
-        <v>601.5</v>
-      </c>
-      <c r="M482" s="60">
-        <v>417</v>
-      </c>
-      <c r="N482" s="60">
-        <v>278</v>
-      </c>
-      <c r="O482" s="61">
-        <v>276237.88710181852</v>
-      </c>
-    </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A483" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B483" s="58">
-        <v>9470</v>
-      </c>
-      <c r="C483" s="59" t="s">
-        <v>918</v>
-      </c>
-      <c r="D483" s="59" t="s">
-        <v>957</v>
-      </c>
-      <c r="E483" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F483" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G483" s="60">
-        <v>9660</v>
-      </c>
-      <c r="H483" s="60">
-        <v>9660</v>
-      </c>
-      <c r="I483" s="60">
-        <v>8643.5</v>
-      </c>
-      <c r="J483" s="60">
-        <v>5831</v>
-      </c>
-      <c r="K483" s="60">
-        <v>9163.5</v>
-      </c>
-      <c r="L483" s="60">
-        <v>9163.5</v>
-      </c>
-      <c r="M483" s="60">
-        <v>7957</v>
-      </c>
-      <c r="N483" s="60">
-        <v>4979.5</v>
-      </c>
-      <c r="O483" s="61">
-        <v>4946699.4861347312</v>
-      </c>
-    </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A484" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B484" s="58">
-        <v>9471</v>
-      </c>
-      <c r="C484" s="59" t="s">
-        <v>919</v>
-      </c>
-      <c r="D484" s="59" t="s">
-        <v>958</v>
-      </c>
-      <c r="E484" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F484" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G484" s="60">
-        <v>1077</v>
-      </c>
-      <c r="H484" s="60">
-        <v>1077</v>
-      </c>
-      <c r="I484" s="60">
-        <v>1010.5</v>
-      </c>
-      <c r="J484" s="60">
-        <v>635.5</v>
-      </c>
-      <c r="K484" s="60">
-        <v>1026</v>
-      </c>
-      <c r="L484" s="60">
-        <v>1026</v>
-      </c>
-      <c r="M484" s="60">
-        <v>957.5</v>
-      </c>
-      <c r="N484" s="60">
-        <v>667.5</v>
-      </c>
-      <c r="O484" s="61">
-        <v>561145.73220152804</v>
-      </c>
-    </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A485" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B485" s="58">
-        <v>9472</v>
-      </c>
-      <c r="C485" s="59" t="s">
-        <v>920</v>
-      </c>
-      <c r="D485" s="59" t="s">
-        <v>959</v>
-      </c>
-      <c r="E485" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F485" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G485" s="60">
-        <v>1024</v>
-      </c>
-      <c r="H485" s="60">
-        <v>1024</v>
-      </c>
-      <c r="I485" s="60">
-        <v>812</v>
-      </c>
-      <c r="J485" s="60">
-        <v>538.5</v>
-      </c>
-      <c r="K485" s="60">
-        <v>988</v>
-      </c>
-      <c r="L485" s="60">
-        <v>988</v>
-      </c>
-      <c r="M485" s="60">
-        <v>739.5</v>
-      </c>
-      <c r="N485" s="60">
-        <v>547</v>
-      </c>
-      <c r="O485" s="61">
-        <v>516819.0455362543</v>
-      </c>
-    </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A486" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B486" s="58">
-        <v>9473</v>
-      </c>
-      <c r="C486" s="59" t="s">
-        <v>921</v>
-      </c>
-      <c r="D486" s="59" t="s">
-        <v>960</v>
-      </c>
-      <c r="E486" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F486" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G486" s="60">
-        <v>2192</v>
-      </c>
-      <c r="H486" s="60">
-        <v>2192</v>
-      </c>
-      <c r="I486" s="60">
-        <v>2064</v>
-      </c>
-      <c r="J486" s="60">
-        <v>1279</v>
-      </c>
-      <c r="K486" s="60">
-        <v>3305</v>
-      </c>
-      <c r="L486" s="60">
-        <v>3305</v>
-      </c>
-      <c r="M486" s="60">
-        <v>3407</v>
-      </c>
-      <c r="N486" s="60">
-        <v>1861.5</v>
-      </c>
-      <c r="O486" s="61">
-        <v>1469272.9524454125</v>
-      </c>
-    </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A487" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B487" s="58">
-        <v>9474</v>
-      </c>
-      <c r="C487" s="59" t="s">
-        <v>922</v>
-      </c>
-      <c r="D487" s="59" t="s">
-        <v>961</v>
-      </c>
-      <c r="E487" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F487" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G487" s="60">
-        <v>616.5</v>
-      </c>
-      <c r="H487" s="60">
-        <v>616.5</v>
-      </c>
-      <c r="I487" s="60">
-        <v>321.5</v>
-      </c>
-      <c r="J487" s="60">
-        <v>181.5</v>
-      </c>
-      <c r="K487" s="60">
-        <v>635.5</v>
-      </c>
-      <c r="L487" s="60">
-        <v>635.5</v>
-      </c>
-      <c r="M487" s="60">
-        <v>285.5</v>
-      </c>
-      <c r="N487" s="60">
-        <v>178</v>
-      </c>
-      <c r="O487" s="61">
-        <v>294147.65949182812</v>
-      </c>
-    </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A488" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B488" s="58">
-        <v>9475</v>
-      </c>
-      <c r="C488" s="59" t="s">
-        <v>923</v>
-      </c>
-      <c r="D488" s="59" t="s">
-        <v>962</v>
-      </c>
-      <c r="E488" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F488" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G488" s="60">
-        <v>467</v>
-      </c>
-      <c r="H488" s="60">
-        <v>467</v>
-      </c>
-      <c r="I488" s="60">
-        <v>456</v>
-      </c>
-      <c r="J488" s="60">
-        <v>271.5</v>
-      </c>
-      <c r="K488" s="60">
-        <v>306.5</v>
-      </c>
-      <c r="L488" s="60">
-        <v>306.5</v>
-      </c>
-      <c r="M488" s="60">
-        <v>284</v>
-      </c>
-      <c r="N488" s="60">
-        <v>196.5</v>
-      </c>
-      <c r="O488" s="61">
-        <v>206593.29492157663</v>
-      </c>
-    </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A489" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B489" s="58">
-        <v>9476</v>
-      </c>
-      <c r="C489" s="59" t="s">
-        <v>924</v>
-      </c>
-      <c r="D489" s="59" t="s">
-        <v>963</v>
-      </c>
-      <c r="E489" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F489" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G489" s="60">
-        <v>534</v>
-      </c>
-      <c r="H489" s="60">
-        <v>534</v>
-      </c>
-      <c r="I489" s="60">
-        <v>433</v>
-      </c>
-      <c r="J489" s="60">
-        <v>289.5</v>
-      </c>
-      <c r="K489" s="60">
-        <v>755</v>
-      </c>
-      <c r="L489" s="60">
-        <v>755</v>
-      </c>
-      <c r="M489" s="60">
-        <v>618</v>
-      </c>
-      <c r="N489" s="60">
-        <v>431.5</v>
-      </c>
-      <c r="O489" s="61">
-        <v>334464.99938342924</v>
-      </c>
-    </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A490" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B490" s="58">
-        <v>9477</v>
-      </c>
-      <c r="C490" s="59" t="s">
-        <v>925</v>
-      </c>
-      <c r="D490" s="59" t="s">
-        <v>964</v>
-      </c>
-      <c r="E490" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F490" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G490" s="60">
-        <v>1221</v>
-      </c>
-      <c r="H490" s="60">
-        <v>1221</v>
-      </c>
-      <c r="I490" s="60">
-        <v>1164.5</v>
-      </c>
-      <c r="J490" s="60">
-        <v>731.5</v>
-      </c>
-      <c r="K490" s="60">
-        <v>1183</v>
-      </c>
-      <c r="L490" s="60">
-        <v>1183</v>
-      </c>
-      <c r="M490" s="60">
-        <v>1071.5</v>
-      </c>
-      <c r="N490" s="60">
-        <v>729</v>
-      </c>
-      <c r="O490" s="61">
-        <v>639724.85856269521</v>
-      </c>
-    </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A491" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B491" s="58">
-        <v>9478</v>
-      </c>
-      <c r="C491" s="59" t="s">
-        <v>926</v>
-      </c>
-      <c r="D491" s="59" t="s">
-        <v>965</v>
-      </c>
-      <c r="E491" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F491" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G491" s="60">
-        <v>829.5</v>
-      </c>
-      <c r="H491" s="60">
-        <v>829.5</v>
-      </c>
-      <c r="I491" s="60">
-        <v>678.5</v>
-      </c>
-      <c r="J491" s="60">
-        <v>473.5</v>
-      </c>
-      <c r="K491" s="60">
-        <v>780</v>
-      </c>
-      <c r="L491" s="60">
-        <v>780</v>
-      </c>
-      <c r="M491" s="60">
-        <v>666</v>
-      </c>
-      <c r="N491" s="60">
-        <v>471</v>
-      </c>
-      <c r="O491" s="61">
-        <v>420737.1870666687</v>
-      </c>
-    </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A492" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B492" s="58">
-        <v>9479</v>
-      </c>
-      <c r="C492" s="59" t="s">
-        <v>927</v>
-      </c>
-      <c r="D492" s="59" t="s">
-        <v>966</v>
-      </c>
-      <c r="E492" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F492" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G492" s="60">
-        <v>715</v>
-      </c>
-      <c r="H492" s="60">
-        <v>715</v>
-      </c>
-      <c r="I492" s="60">
-        <v>503.5</v>
-      </c>
-      <c r="J492" s="60">
-        <v>302.5</v>
-      </c>
-      <c r="K492" s="60">
-        <v>638</v>
-      </c>
-      <c r="L492" s="60">
-        <v>638</v>
-      </c>
-      <c r="M492" s="60">
-        <v>410</v>
-      </c>
-      <c r="N492" s="60">
-        <v>268</v>
-      </c>
-      <c r="O492" s="61">
-        <v>335767.5282845209</v>
-      </c>
-    </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A493" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B493" s="58">
-        <v>9480</v>
-      </c>
-      <c r="C493" s="59" t="s">
-        <v>928</v>
-      </c>
-      <c r="D493" s="59" t="s">
-        <v>967</v>
-      </c>
-      <c r="E493" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F493" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G493" s="60">
-        <v>1498.5</v>
-      </c>
-      <c r="H493" s="60">
-        <v>1498.5</v>
-      </c>
-      <c r="I493" s="60">
-        <v>1210.5</v>
-      </c>
-      <c r="J493" s="60">
-        <v>797.5</v>
-      </c>
-      <c r="K493" s="60">
-        <v>1772.5</v>
-      </c>
-      <c r="L493" s="60">
-        <v>1772.5</v>
-      </c>
-      <c r="M493" s="60">
-        <v>1320.5</v>
-      </c>
-      <c r="N493" s="60">
-        <v>891</v>
-      </c>
-      <c r="O493" s="61">
-        <v>837465.02735966479</v>
-      </c>
-    </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A494" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B494" s="58">
-        <v>9481</v>
-      </c>
-      <c r="C494" s="59" t="s">
-        <v>929</v>
-      </c>
-      <c r="D494" s="59" t="s">
-        <v>968</v>
-      </c>
-      <c r="E494" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F494" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G494" s="60">
-        <v>1495</v>
-      </c>
-      <c r="H494" s="60">
-        <v>1495</v>
-      </c>
-      <c r="I494" s="60">
-        <v>1183</v>
-      </c>
-      <c r="J494" s="60">
-        <v>740</v>
-      </c>
-      <c r="K494" s="60">
-        <v>1677</v>
-      </c>
-      <c r="L494" s="60">
-        <v>1677</v>
-      </c>
-      <c r="M494" s="60">
-        <v>1285.5</v>
-      </c>
-      <c r="N494" s="60">
-        <v>802</v>
-      </c>
-      <c r="O494" s="61">
-        <v>808809.39153564943</v>
-      </c>
-    </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A495" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B495" s="58">
-        <v>9482</v>
-      </c>
-      <c r="C495" s="59" t="s">
-        <v>930</v>
-      </c>
-      <c r="D495" s="59" t="s">
-        <v>969</v>
-      </c>
-      <c r="E495" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F495" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G495" s="60">
-        <v>1072</v>
-      </c>
-      <c r="H495" s="60">
-        <v>1072</v>
-      </c>
-      <c r="I495" s="60">
-        <v>737</v>
-      </c>
-      <c r="J495" s="60">
-        <v>464</v>
-      </c>
-      <c r="K495" s="60">
-        <v>1061.5</v>
-      </c>
-      <c r="L495" s="60">
-        <v>1061.5</v>
-      </c>
-      <c r="M495" s="60">
-        <v>703.5</v>
-      </c>
-      <c r="N495" s="60">
-        <v>440</v>
-      </c>
-      <c r="O495" s="61">
-        <v>529640.81440637482</v>
-      </c>
-    </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A496" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B496" s="58">
-        <v>9484</v>
-      </c>
-      <c r="C496" s="59" t="s">
-        <v>931</v>
-      </c>
-      <c r="D496" s="59" t="s">
-        <v>970</v>
-      </c>
-      <c r="E496" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F496" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G496" s="60">
-        <v>1673</v>
-      </c>
-      <c r="H496" s="60">
-        <v>1673</v>
-      </c>
-      <c r="I496" s="60">
-        <v>1229</v>
-      </c>
-      <c r="J496" s="60">
-        <v>885.5</v>
-      </c>
-      <c r="K496" s="60">
-        <v>1879.5</v>
-      </c>
-      <c r="L496" s="60">
-        <v>1879.5</v>
-      </c>
-      <c r="M496" s="60">
-        <v>1469.5</v>
-      </c>
-      <c r="N496" s="60">
-        <v>1027</v>
-      </c>
-      <c r="O496" s="61">
-        <v>910691.57401790854</v>
-      </c>
-    </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A497" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B497" s="58">
-        <v>9485</v>
-      </c>
-      <c r="C497" s="59" t="s">
-        <v>932</v>
-      </c>
-      <c r="D497" s="59" t="s">
-        <v>971</v>
-      </c>
-      <c r="E497" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F497" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G497" s="60">
-        <v>992.5</v>
-      </c>
-      <c r="H497" s="60">
-        <v>992.5</v>
-      </c>
-      <c r="I497" s="60">
-        <v>797.5</v>
-      </c>
-      <c r="J497" s="60">
-        <v>607.5</v>
-      </c>
-      <c r="K497" s="60">
-        <v>1089</v>
-      </c>
-      <c r="L497" s="60">
-        <v>1089</v>
-      </c>
-      <c r="M497" s="60">
-        <v>815</v>
-      </c>
-      <c r="N497" s="60">
-        <v>613.5</v>
-      </c>
-      <c r="O497" s="61">
-        <v>538962.03685481159</v>
-      </c>
-    </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A498" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B498" s="58">
-        <v>9486</v>
-      </c>
-      <c r="C498" s="59" t="s">
-        <v>933</v>
-      </c>
-      <c r="D498" s="59" t="s">
-        <v>972</v>
-      </c>
-      <c r="E498" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F498" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G498" s="60">
-        <v>171</v>
-      </c>
-      <c r="H498" s="60">
-        <v>171</v>
-      </c>
-      <c r="I498" s="60">
-        <v>189</v>
-      </c>
-      <c r="J498" s="60">
-        <v>124</v>
-      </c>
-      <c r="K498" s="60">
-        <v>980</v>
-      </c>
-      <c r="L498" s="60">
-        <v>980</v>
-      </c>
-      <c r="M498" s="60">
-        <v>1046.5</v>
-      </c>
-      <c r="N498" s="60">
-        <v>602</v>
-      </c>
-      <c r="O498" s="61">
-        <v>314092.63328979333</v>
-      </c>
-    </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A499" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B499" s="58">
-        <v>9487</v>
-      </c>
-      <c r="C499" s="59" t="s">
-        <v>934</v>
-      </c>
-      <c r="D499" s="59" t="s">
-        <v>973</v>
-      </c>
-      <c r="E499" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F499" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G499" s="60">
-        <v>2574.5</v>
-      </c>
-      <c r="H499" s="60">
-        <v>2574.5</v>
-      </c>
-      <c r="I499" s="60">
-        <v>2081</v>
-      </c>
-      <c r="J499" s="60">
-        <v>1245.5</v>
-      </c>
-      <c r="K499" s="60">
-        <v>2392</v>
-      </c>
-      <c r="L499" s="60">
-        <v>2392</v>
-      </c>
-      <c r="M499" s="60">
-        <v>1795.5</v>
-      </c>
-      <c r="N499" s="60">
-        <v>1204.5</v>
-      </c>
-      <c r="O499" s="61">
-        <v>1268296.8134097934</v>
-      </c>
-    </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A500" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B500" s="58">
-        <v>9491</v>
-      </c>
-      <c r="C500" s="59" t="s">
-        <v>935</v>
-      </c>
-      <c r="D500" s="59" t="s">
-        <v>974</v>
-      </c>
-      <c r="E500" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F500" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G500" s="60">
-        <v>1816.5</v>
-      </c>
-      <c r="H500" s="60">
-        <v>1816.5</v>
-      </c>
-      <c r="I500" s="60">
-        <v>1340</v>
-      </c>
-      <c r="J500" s="60">
-        <v>868</v>
-      </c>
-      <c r="K500" s="60">
-        <v>1989</v>
-      </c>
-      <c r="L500" s="60">
-        <v>1989</v>
-      </c>
-      <c r="M500" s="60">
-        <v>1448.5</v>
-      </c>
-      <c r="N500" s="60">
-        <v>929</v>
-      </c>
-      <c r="O500" s="61">
-        <v>961144.2169211288</v>
-      </c>
-    </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A501" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B501" s="58">
-        <v>9497</v>
-      </c>
-      <c r="C501" s="59" t="s">
-        <v>936</v>
-      </c>
-      <c r="D501" s="59" t="s">
-        <v>975</v>
-      </c>
-      <c r="E501" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F501" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G501" s="60">
-        <v>1248.5</v>
-      </c>
-      <c r="H501" s="60">
-        <v>1248.5</v>
-      </c>
-      <c r="I501" s="60">
-        <v>1351</v>
-      </c>
-      <c r="J501" s="60">
-        <v>882</v>
-      </c>
-      <c r="K501" s="60">
-        <v>1403.5</v>
-      </c>
-      <c r="L501" s="60">
-        <v>1403.5</v>
-      </c>
-      <c r="M501" s="60">
-        <v>1424.5</v>
-      </c>
-      <c r="N501" s="60">
-        <v>940.5</v>
-      </c>
-      <c r="O501" s="61">
-        <v>726892.5348654351</v>
-      </c>
-    </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A502" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B502" s="58">
-        <v>9498</v>
-      </c>
-      <c r="C502" s="59" t="s">
-        <v>937</v>
-      </c>
-      <c r="D502" s="59" t="s">
-        <v>976</v>
-      </c>
-      <c r="E502" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F502" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G502" s="60">
-        <v>1422</v>
-      </c>
-      <c r="H502" s="60">
-        <v>1422</v>
-      </c>
-      <c r="I502" s="60">
-        <v>1453.5</v>
-      </c>
-      <c r="J502" s="60">
-        <v>931.5</v>
-      </c>
-      <c r="K502" s="60">
-        <v>1538</v>
-      </c>
-      <c r="L502" s="60">
-        <v>1538</v>
-      </c>
-      <c r="M502" s="60">
-        <v>1509</v>
-      </c>
-      <c r="N502" s="60">
-        <v>1064.5</v>
-      </c>
-      <c r="O502" s="61">
-        <v>804250.54038182879</v>
-      </c>
-    </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A503" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B503" s="58">
-        <v>9499</v>
-      </c>
-      <c r="C503" s="59" t="s">
-        <v>938</v>
-      </c>
-      <c r="D503" s="59" t="s">
-        <v>977</v>
-      </c>
-      <c r="E503" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F503" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G503" s="60">
-        <v>1150</v>
-      </c>
-      <c r="H503" s="60">
-        <v>1150</v>
-      </c>
-      <c r="I503" s="60">
-        <v>1029</v>
-      </c>
-      <c r="J503" s="60">
-        <v>665</v>
-      </c>
-      <c r="K503" s="60">
-        <v>332.5</v>
-      </c>
-      <c r="L503" s="60">
-        <v>332.5</v>
-      </c>
-      <c r="M503" s="60">
-        <v>266.5</v>
-      </c>
-      <c r="N503" s="60">
-        <v>184</v>
-      </c>
-      <c r="O503" s="61">
-        <v>389008.39711664029</v>
-      </c>
-    </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A504" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B504" s="58">
-        <v>8776</v>
-      </c>
-      <c r="C504" s="59" t="s">
-        <v>939</v>
-      </c>
-      <c r="D504" s="59" t="s">
-        <v>978</v>
-      </c>
-      <c r="E504" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F504" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G504" s="60">
-        <v>2613.5</v>
-      </c>
-      <c r="H504" s="60">
-        <v>2613.5</v>
-      </c>
-      <c r="I504" s="60">
-        <v>2419.5</v>
-      </c>
-      <c r="J504" s="60">
-        <v>1695</v>
-      </c>
-      <c r="K504" s="60">
-        <v>3104</v>
-      </c>
-      <c r="L504" s="60">
-        <v>3104</v>
-      </c>
-      <c r="M504" s="60">
-        <v>2674.5</v>
-      </c>
-      <c r="N504" s="60">
-        <v>1829</v>
-      </c>
-      <c r="O504" s="61">
-        <v>1514413.7196738685</v>
-      </c>
-    </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A505" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B505" s="58">
-        <v>8777</v>
-      </c>
-      <c r="C505" s="59" t="s">
-        <v>940</v>
-      </c>
-      <c r="D505" s="59" t="s">
-        <v>979</v>
-      </c>
-      <c r="E505" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F505" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G505" s="60">
-        <v>3862</v>
-      </c>
-      <c r="H505" s="60">
-        <v>3862</v>
-      </c>
-      <c r="I505" s="60">
-        <v>3154.5</v>
-      </c>
-      <c r="J505" s="60">
-        <v>1905</v>
-      </c>
-      <c r="K505" s="60">
-        <v>3259</v>
-      </c>
-      <c r="L505" s="60">
-        <v>3259</v>
-      </c>
-      <c r="M505" s="60">
-        <v>2956</v>
-      </c>
-      <c r="N505" s="60">
-        <v>1679.5</v>
-      </c>
-      <c r="O505" s="61">
-        <v>1843892.4756078066</v>
-      </c>
-    </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A506" s="57" t="s">
-        <v>884</v>
-      </c>
-      <c r="B506" s="58">
-        <v>8779</v>
-      </c>
-      <c r="C506" s="59" t="s">
-        <v>941</v>
-      </c>
-      <c r="D506" s="59" t="s">
-        <v>980</v>
-      </c>
-      <c r="E506" s="59" t="s">
-        <v>981</v>
-      </c>
-      <c r="F506" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="G506" s="60">
-        <v>1087.5</v>
-      </c>
-      <c r="H506" s="60">
-        <v>1087.5</v>
-      </c>
-      <c r="I506" s="60">
-        <v>805</v>
-      </c>
-      <c r="J506" s="60">
-        <v>540.5</v>
-      </c>
-      <c r="K506" s="60">
-        <v>881</v>
-      </c>
-      <c r="L506" s="60">
-        <v>881</v>
-      </c>
-      <c r="M506" s="60">
-        <v>645.5</v>
-      </c>
-      <c r="N506" s="60">
-        <v>471</v>
-      </c>
-      <c r="O506" s="61">
-        <v>500842.71448380256</v>
-      </c>
+    <row r="468" spans="1:15">
+      <c r="A468" s="57"/>
+      <c r="B468" s="58"/>
+      <c r="C468" s="59"/>
+      <c r="D468" s="59"/>
+      <c r="E468" s="59"/>
+      <c r="F468" s="58"/>
+      <c r="G468" s="60"/>
+      <c r="H468" s="60"/>
+      <c r="I468" s="60"/>
+      <c r="J468" s="60"/>
+      <c r="K468" s="60"/>
+      <c r="L468" s="60"/>
+      <c r="M468" s="60"/>
+      <c r="N468" s="60"/>
+      <c r="O468" s="61"/>
+    </row>
+    <row r="469" spans="1:15">
+      <c r="A469" s="57"/>
+      <c r="B469" s="58"/>
+      <c r="C469" s="59"/>
+      <c r="D469" s="59"/>
+      <c r="E469" s="59"/>
+      <c r="F469" s="58"/>
+      <c r="G469" s="60"/>
+      <c r="H469" s="60"/>
+      <c r="I469" s="60"/>
+      <c r="J469" s="60"/>
+      <c r="K469" s="60"/>
+      <c r="L469" s="60"/>
+      <c r="M469" s="60"/>
+      <c r="N469" s="60"/>
+      <c r="O469" s="61"/>
+    </row>
+    <row r="470" spans="1:15">
+      <c r="A470" s="57"/>
+      <c r="B470" s="58"/>
+      <c r="C470" s="59"/>
+      <c r="D470" s="59"/>
+      <c r="E470" s="59"/>
+      <c r="F470" s="58"/>
+      <c r="G470" s="60"/>
+      <c r="H470" s="60"/>
+      <c r="I470" s="60"/>
+      <c r="J470" s="60"/>
+      <c r="K470" s="60"/>
+      <c r="L470" s="60"/>
+      <c r="M470" s="60"/>
+      <c r="N470" s="60"/>
+      <c r="O470" s="61"/>
+    </row>
+    <row r="471" spans="1:15">
+      <c r="A471" s="57"/>
+      <c r="B471" s="58"/>
+      <c r="C471" s="59"/>
+      <c r="D471" s="59"/>
+      <c r="E471" s="59"/>
+      <c r="F471" s="58"/>
+      <c r="G471" s="60"/>
+      <c r="H471" s="60"/>
+      <c r="I471" s="60"/>
+      <c r="J471" s="60"/>
+      <c r="K471" s="60"/>
+      <c r="L471" s="60"/>
+      <c r="M471" s="60"/>
+      <c r="N471" s="60"/>
+      <c r="O471" s="61"/>
+    </row>
+    <row r="472" spans="1:15">
+      <c r="A472" s="57"/>
+      <c r="B472" s="58"/>
+      <c r="C472" s="59"/>
+      <c r="D472" s="59"/>
+      <c r="E472" s="59"/>
+      <c r="F472" s="58"/>
+      <c r="G472" s="60"/>
+      <c r="H472" s="60"/>
+      <c r="I472" s="60"/>
+      <c r="J472" s="60"/>
+      <c r="K472" s="60"/>
+      <c r="L472" s="60"/>
+      <c r="M472" s="60"/>
+      <c r="N472" s="60"/>
+      <c r="O472" s="61"/>
+    </row>
+    <row r="473" spans="1:15">
+      <c r="A473" s="57"/>
+      <c r="B473" s="58"/>
+      <c r="C473" s="59"/>
+      <c r="D473" s="59"/>
+      <c r="E473" s="59"/>
+      <c r="F473" s="58"/>
+      <c r="G473" s="60"/>
+      <c r="H473" s="60"/>
+      <c r="I473" s="60"/>
+      <c r="J473" s="60"/>
+      <c r="K473" s="60"/>
+      <c r="L473" s="60"/>
+      <c r="M473" s="60"/>
+      <c r="N473" s="60"/>
+      <c r="O473" s="61"/>
+    </row>
+    <row r="474" spans="1:15">
+      <c r="A474" s="57"/>
+      <c r="B474" s="58"/>
+      <c r="C474" s="59"/>
+      <c r="D474" s="59"/>
+      <c r="E474" s="59"/>
+      <c r="F474" s="58"/>
+      <c r="G474" s="60"/>
+      <c r="H474" s="60"/>
+      <c r="I474" s="60"/>
+      <c r="J474" s="60"/>
+      <c r="K474" s="60"/>
+      <c r="L474" s="60"/>
+      <c r="M474" s="60"/>
+      <c r="N474" s="60"/>
+      <c r="O474" s="61"/>
+    </row>
+    <row r="475" spans="1:15">
+      <c r="A475" s="57"/>
+      <c r="B475" s="58"/>
+      <c r="C475" s="59"/>
+      <c r="D475" s="59"/>
+      <c r="E475" s="59"/>
+      <c r="F475" s="58"/>
+      <c r="G475" s="60"/>
+      <c r="H475" s="60"/>
+      <c r="I475" s="60"/>
+      <c r="J475" s="60"/>
+      <c r="K475" s="60"/>
+      <c r="L475" s="60"/>
+      <c r="M475" s="60"/>
+      <c r="N475" s="60"/>
+      <c r="O475" s="61"/>
+    </row>
+    <row r="476" spans="1:15">
+      <c r="A476" s="57"/>
+      <c r="B476" s="58"/>
+      <c r="C476" s="59"/>
+      <c r="D476" s="59"/>
+      <c r="E476" s="59"/>
+      <c r="F476" s="58"/>
+      <c r="G476" s="60"/>
+      <c r="H476" s="60"/>
+      <c r="I476" s="60"/>
+      <c r="J476" s="60"/>
+      <c r="K476" s="60"/>
+      <c r="L476" s="60"/>
+      <c r="M476" s="60"/>
+      <c r="N476" s="60"/>
+      <c r="O476" s="61"/>
+    </row>
+    <row r="477" spans="1:15">
+      <c r="A477" s="57"/>
+      <c r="B477" s="58"/>
+      <c r="C477" s="59"/>
+      <c r="D477" s="59"/>
+      <c r="E477" s="59"/>
+      <c r="F477" s="58"/>
+      <c r="G477" s="60"/>
+      <c r="H477" s="60"/>
+      <c r="I477" s="60"/>
+      <c r="J477" s="60"/>
+      <c r="K477" s="60"/>
+      <c r="L477" s="60"/>
+      <c r="M477" s="60"/>
+      <c r="N477" s="60"/>
+      <c r="O477" s="61"/>
+    </row>
+    <row r="478" spans="1:15">
+      <c r="A478" s="57"/>
+      <c r="B478" s="58"/>
+      <c r="C478" s="59"/>
+      <c r="D478" s="59"/>
+      <c r="E478" s="59"/>
+      <c r="F478" s="58"/>
+      <c r="G478" s="60"/>
+      <c r="H478" s="60"/>
+      <c r="I478" s="60"/>
+      <c r="J478" s="60"/>
+      <c r="K478" s="60"/>
+      <c r="L478" s="60"/>
+      <c r="M478" s="60"/>
+      <c r="N478" s="60"/>
+      <c r="O478" s="61"/>
+    </row>
+    <row r="479" spans="1:15">
+      <c r="A479" s="57"/>
+      <c r="B479" s="58"/>
+      <c r="C479" s="59"/>
+      <c r="D479" s="59"/>
+      <c r="E479" s="59"/>
+      <c r="F479" s="58"/>
+      <c r="G479" s="60"/>
+      <c r="H479" s="60"/>
+      <c r="I479" s="60"/>
+      <c r="J479" s="60"/>
+      <c r="K479" s="60"/>
+      <c r="L479" s="60"/>
+      <c r="M479" s="60"/>
+      <c r="N479" s="60"/>
+      <c r="O479" s="61"/>
+    </row>
+    <row r="480" spans="1:15">
+      <c r="A480" s="57"/>
+      <c r="B480" s="58"/>
+      <c r="C480" s="59"/>
+      <c r="D480" s="59"/>
+      <c r="E480" s="59"/>
+      <c r="F480" s="58"/>
+      <c r="G480" s="60"/>
+      <c r="H480" s="60"/>
+      <c r="I480" s="60"/>
+      <c r="J480" s="60"/>
+      <c r="K480" s="60"/>
+      <c r="L480" s="60"/>
+      <c r="M480" s="60"/>
+      <c r="N480" s="60"/>
+      <c r="O480" s="61"/>
+    </row>
+    <row r="481" spans="1:15">
+      <c r="A481" s="57"/>
+      <c r="B481" s="58"/>
+      <c r="C481" s="59"/>
+      <c r="D481" s="59"/>
+      <c r="E481" s="59"/>
+      <c r="F481" s="58"/>
+      <c r="G481" s="60"/>
+      <c r="H481" s="60"/>
+      <c r="I481" s="60"/>
+      <c r="J481" s="60"/>
+      <c r="K481" s="60"/>
+      <c r="L481" s="60"/>
+      <c r="M481" s="60"/>
+      <c r="N481" s="60"/>
+      <c r="O481" s="61"/>
+    </row>
+    <row r="482" spans="1:15">
+      <c r="A482" s="57"/>
+      <c r="B482" s="58"/>
+      <c r="C482" s="59"/>
+      <c r="D482" s="59"/>
+      <c r="E482" s="59"/>
+      <c r="F482" s="58"/>
+      <c r="G482" s="60"/>
+      <c r="H482" s="60"/>
+      <c r="I482" s="60"/>
+      <c r="J482" s="60"/>
+      <c r="K482" s="60"/>
+      <c r="L482" s="60"/>
+      <c r="M482" s="60"/>
+      <c r="N482" s="60"/>
+      <c r="O482" s="61"/>
+    </row>
+    <row r="483" spans="1:15">
+      <c r="A483" s="57"/>
+      <c r="B483" s="58"/>
+      <c r="C483" s="59"/>
+      <c r="D483" s="59"/>
+      <c r="E483" s="59"/>
+      <c r="F483" s="58"/>
+      <c r="G483" s="60"/>
+      <c r="H483" s="60"/>
+      <c r="I483" s="60"/>
+      <c r="J483" s="60"/>
+      <c r="K483" s="60"/>
+      <c r="L483" s="60"/>
+      <c r="M483" s="60"/>
+      <c r="N483" s="60"/>
+      <c r="O483" s="61"/>
+    </row>
+    <row r="484" spans="1:15">
+      <c r="A484" s="57"/>
+      <c r="B484" s="58"/>
+      <c r="C484" s="59"/>
+      <c r="D484" s="59"/>
+      <c r="E484" s="59"/>
+      <c r="F484" s="58"/>
+      <c r="G484" s="60"/>
+      <c r="H484" s="60"/>
+      <c r="I484" s="60"/>
+      <c r="J484" s="60"/>
+      <c r="K484" s="60"/>
+      <c r="L484" s="60"/>
+      <c r="M484" s="60"/>
+      <c r="N484" s="60"/>
+      <c r="O484" s="61"/>
+    </row>
+    <row r="485" spans="1:15">
+      <c r="A485" s="57"/>
+      <c r="B485" s="58"/>
+      <c r="C485" s="59"/>
+      <c r="D485" s="59"/>
+      <c r="E485" s="59"/>
+      <c r="F485" s="58"/>
+      <c r="G485" s="60"/>
+      <c r="H485" s="60"/>
+      <c r="I485" s="60"/>
+      <c r="J485" s="60"/>
+      <c r="K485" s="60"/>
+      <c r="L485" s="60"/>
+      <c r="M485" s="60"/>
+      <c r="N485" s="60"/>
+      <c r="O485" s="61"/>
+    </row>
+    <row r="486" spans="1:15">
+      <c r="A486" s="57"/>
+      <c r="B486" s="58"/>
+      <c r="C486" s="59"/>
+      <c r="D486" s="59"/>
+      <c r="E486" s="59"/>
+      <c r="F486" s="58"/>
+      <c r="G486" s="60"/>
+      <c r="H486" s="60"/>
+      <c r="I486" s="60"/>
+      <c r="J486" s="60"/>
+      <c r="K486" s="60"/>
+      <c r="L486" s="60"/>
+      <c r="M486" s="60"/>
+      <c r="N486" s="60"/>
+      <c r="O486" s="61"/>
+    </row>
+    <row r="487" spans="1:15">
+      <c r="A487" s="57"/>
+      <c r="B487" s="58"/>
+      <c r="C487" s="59"/>
+      <c r="D487" s="59"/>
+      <c r="E487" s="59"/>
+      <c r="F487" s="58"/>
+      <c r="G487" s="60"/>
+      <c r="H487" s="60"/>
+      <c r="I487" s="60"/>
+      <c r="J487" s="60"/>
+      <c r="K487" s="60"/>
+      <c r="L487" s="60"/>
+      <c r="M487" s="60"/>
+      <c r="N487" s="60"/>
+      <c r="O487" s="61"/>
+    </row>
+    <row r="488" spans="1:15">
+      <c r="A488" s="57"/>
+      <c r="B488" s="58"/>
+      <c r="C488" s="59"/>
+      <c r="D488" s="59"/>
+      <c r="E488" s="59"/>
+      <c r="F488" s="58"/>
+      <c r="G488" s="60"/>
+      <c r="H488" s="60"/>
+      <c r="I488" s="60"/>
+      <c r="J488" s="60"/>
+      <c r="K488" s="60"/>
+      <c r="L488" s="60"/>
+      <c r="M488" s="60"/>
+      <c r="N488" s="60"/>
+      <c r="O488" s="61"/>
+    </row>
+    <row r="489" spans="1:15">
+      <c r="A489" s="57"/>
+      <c r="B489" s="58"/>
+      <c r="C489" s="59"/>
+      <c r="D489" s="59"/>
+      <c r="E489" s="59"/>
+      <c r="F489" s="58"/>
+      <c r="G489" s="60"/>
+      <c r="H489" s="60"/>
+      <c r="I489" s="60"/>
+      <c r="J489" s="60"/>
+      <c r="K489" s="60"/>
+      <c r="L489" s="60"/>
+      <c r="M489" s="60"/>
+      <c r="N489" s="60"/>
+      <c r="O489" s="61"/>
+    </row>
+    <row r="490" spans="1:15">
+      <c r="A490" s="57"/>
+      <c r="B490" s="58"/>
+      <c r="C490" s="59"/>
+      <c r="D490" s="59"/>
+      <c r="E490" s="59"/>
+      <c r="F490" s="58"/>
+      <c r="G490" s="60"/>
+      <c r="H490" s="60"/>
+      <c r="I490" s="60"/>
+      <c r="J490" s="60"/>
+      <c r="K490" s="60"/>
+      <c r="L490" s="60"/>
+      <c r="M490" s="60"/>
+      <c r="N490" s="60"/>
+      <c r="O490" s="61"/>
+    </row>
+    <row r="491" spans="1:15">
+      <c r="A491" s="57"/>
+      <c r="B491" s="58"/>
+      <c r="C491" s="59"/>
+      <c r="D491" s="59"/>
+      <c r="E491" s="59"/>
+      <c r="F491" s="58"/>
+      <c r="G491" s="60"/>
+      <c r="H491" s="60"/>
+      <c r="I491" s="60"/>
+      <c r="J491" s="60"/>
+      <c r="K491" s="60"/>
+      <c r="L491" s="60"/>
+      <c r="M491" s="60"/>
+      <c r="N491" s="60"/>
+      <c r="O491" s="61"/>
+    </row>
+    <row r="492" spans="1:15">
+      <c r="A492" s="57"/>
+      <c r="B492" s="58"/>
+      <c r="C492" s="59"/>
+      <c r="D492" s="59"/>
+      <c r="E492" s="59"/>
+      <c r="F492" s="58"/>
+      <c r="G492" s="60"/>
+      <c r="H492" s="60"/>
+      <c r="I492" s="60"/>
+      <c r="J492" s="60"/>
+      <c r="K492" s="60"/>
+      <c r="L492" s="60"/>
+      <c r="M492" s="60"/>
+      <c r="N492" s="60"/>
+      <c r="O492" s="61"/>
+    </row>
+    <row r="493" spans="1:15">
+      <c r="A493" s="57"/>
+      <c r="B493" s="58"/>
+      <c r="C493" s="59"/>
+      <c r="D493" s="59"/>
+      <c r="E493" s="59"/>
+      <c r="F493" s="58"/>
+      <c r="G493" s="60"/>
+      <c r="H493" s="60"/>
+      <c r="I493" s="60"/>
+      <c r="J493" s="60"/>
+      <c r="K493" s="60"/>
+      <c r="L493" s="60"/>
+      <c r="M493" s="60"/>
+      <c r="N493" s="60"/>
+      <c r="O493" s="61"/>
+    </row>
+    <row r="494" spans="1:15">
+      <c r="A494" s="57"/>
+      <c r="B494" s="58"/>
+      <c r="C494" s="59"/>
+      <c r="D494" s="59"/>
+      <c r="E494" s="59"/>
+      <c r="F494" s="58"/>
+      <c r="G494" s="60"/>
+      <c r="H494" s="60"/>
+      <c r="I494" s="60"/>
+      <c r="J494" s="60"/>
+      <c r="K494" s="60"/>
+      <c r="L494" s="60"/>
+      <c r="M494" s="60"/>
+      <c r="N494" s="60"/>
+      <c r="O494" s="61"/>
+    </row>
+    <row r="495" spans="1:15">
+      <c r="A495" s="57"/>
+      <c r="B495" s="58"/>
+      <c r="C495" s="59"/>
+      <c r="D495" s="59"/>
+      <c r="E495" s="59"/>
+      <c r="F495" s="58"/>
+      <c r="G495" s="60"/>
+      <c r="H495" s="60"/>
+      <c r="I495" s="60"/>
+      <c r="J495" s="60"/>
+      <c r="K495" s="60"/>
+      <c r="L495" s="60"/>
+      <c r="M495" s="60"/>
+      <c r="N495" s="60"/>
+      <c r="O495" s="61"/>
+    </row>
+    <row r="496" spans="1:15">
+      <c r="A496" s="57"/>
+      <c r="B496" s="58"/>
+      <c r="C496" s="59"/>
+      <c r="D496" s="59"/>
+      <c r="E496" s="59"/>
+      <c r="F496" s="58"/>
+      <c r="G496" s="60"/>
+      <c r="H496" s="60"/>
+      <c r="I496" s="60"/>
+      <c r="J496" s="60"/>
+      <c r="K496" s="60"/>
+      <c r="L496" s="60"/>
+      <c r="M496" s="60"/>
+      <c r="N496" s="60"/>
+      <c r="O496" s="61"/>
+    </row>
+    <row r="497" spans="1:15">
+      <c r="A497" s="57"/>
+      <c r="B497" s="58"/>
+      <c r="C497" s="59"/>
+      <c r="D497" s="59"/>
+      <c r="E497" s="59"/>
+      <c r="F497" s="58"/>
+      <c r="G497" s="60"/>
+      <c r="H497" s="60"/>
+      <c r="I497" s="60"/>
+      <c r="J497" s="60"/>
+      <c r="K497" s="60"/>
+      <c r="L497" s="60"/>
+      <c r="M497" s="60"/>
+      <c r="N497" s="60"/>
+      <c r="O497" s="61"/>
+    </row>
+    <row r="498" spans="1:15">
+      <c r="A498" s="57"/>
+      <c r="B498" s="58"/>
+      <c r="C498" s="59"/>
+      <c r="D498" s="59"/>
+      <c r="E498" s="59"/>
+      <c r="F498" s="58"/>
+      <c r="G498" s="60"/>
+      <c r="H498" s="60"/>
+      <c r="I498" s="60"/>
+      <c r="J498" s="60"/>
+      <c r="K498" s="60"/>
+      <c r="L498" s="60"/>
+      <c r="M498" s="60"/>
+      <c r="N498" s="60"/>
+      <c r="O498" s="61"/>
+    </row>
+    <row r="499" spans="1:15">
+      <c r="A499" s="57"/>
+      <c r="B499" s="58"/>
+      <c r="C499" s="59"/>
+      <c r="D499" s="59"/>
+      <c r="E499" s="59"/>
+      <c r="F499" s="58"/>
+      <c r="G499" s="60"/>
+      <c r="H499" s="60"/>
+      <c r="I499" s="60"/>
+      <c r="J499" s="60"/>
+      <c r="K499" s="60"/>
+      <c r="L499" s="60"/>
+      <c r="M499" s="60"/>
+      <c r="N499" s="60"/>
+      <c r="O499" s="61"/>
+    </row>
+    <row r="500" spans="1:15">
+      <c r="A500" s="57"/>
+      <c r="B500" s="58"/>
+      <c r="C500" s="59"/>
+      <c r="D500" s="59"/>
+      <c r="E500" s="59"/>
+      <c r="F500" s="58"/>
+      <c r="G500" s="60"/>
+      <c r="H500" s="60"/>
+      <c r="I500" s="60"/>
+      <c r="J500" s="60"/>
+      <c r="K500" s="60"/>
+      <c r="L500" s="60"/>
+      <c r="M500" s="60"/>
+      <c r="N500" s="60"/>
+      <c r="O500" s="61"/>
+    </row>
+    <row r="501" spans="1:15">
+      <c r="A501" s="57"/>
+      <c r="B501" s="58"/>
+      <c r="C501" s="59"/>
+      <c r="D501" s="59"/>
+      <c r="E501" s="59"/>
+      <c r="F501" s="58"/>
+      <c r="G501" s="60"/>
+      <c r="H501" s="60"/>
+      <c r="I501" s="60"/>
+      <c r="J501" s="60"/>
+      <c r="K501" s="60"/>
+      <c r="L501" s="60"/>
+      <c r="M501" s="60"/>
+      <c r="N501" s="60"/>
+      <c r="O501" s="61"/>
+    </row>
+    <row r="502" spans="1:15">
+      <c r="A502" s="57"/>
+      <c r="B502" s="58"/>
+      <c r="C502" s="59"/>
+      <c r="D502" s="59"/>
+      <c r="E502" s="59"/>
+      <c r="F502" s="58"/>
+      <c r="G502" s="60"/>
+      <c r="H502" s="60"/>
+      <c r="I502" s="60"/>
+      <c r="J502" s="60"/>
+      <c r="K502" s="60"/>
+      <c r="L502" s="60"/>
+      <c r="M502" s="60"/>
+      <c r="N502" s="60"/>
+      <c r="O502" s="61"/>
+    </row>
+    <row r="503" spans="1:15">
+      <c r="A503" s="57"/>
+      <c r="B503" s="58"/>
+      <c r="C503" s="59"/>
+      <c r="D503" s="59"/>
+      <c r="E503" s="59"/>
+      <c r="F503" s="58"/>
+      <c r="G503" s="60"/>
+      <c r="H503" s="60"/>
+      <c r="I503" s="60"/>
+      <c r="J503" s="60"/>
+      <c r="K503" s="60"/>
+      <c r="L503" s="60"/>
+      <c r="M503" s="60"/>
+      <c r="N503" s="60"/>
+      <c r="O503" s="61"/>
+    </row>
+    <row r="504" spans="1:15">
+      <c r="A504" s="57"/>
+      <c r="B504" s="58"/>
+      <c r="C504" s="59"/>
+      <c r="D504" s="59"/>
+      <c r="E504" s="59"/>
+      <c r="F504" s="58"/>
+      <c r="G504" s="60"/>
+      <c r="H504" s="60"/>
+      <c r="I504" s="60"/>
+      <c r="J504" s="60"/>
+      <c r="K504" s="60"/>
+      <c r="L504" s="60"/>
+      <c r="M504" s="60"/>
+      <c r="N504" s="60"/>
+      <c r="O504" s="61"/>
+    </row>
+    <row r="505" spans="1:15">
+      <c r="A505" s="57"/>
+      <c r="B505" s="58"/>
+      <c r="C505" s="59"/>
+      <c r="D505" s="59"/>
+      <c r="E505" s="59"/>
+      <c r="F505" s="58"/>
+      <c r="G505" s="60"/>
+      <c r="H505" s="60"/>
+      <c r="I505" s="60"/>
+      <c r="J505" s="60"/>
+      <c r="K505" s="60"/>
+      <c r="L505" s="60"/>
+      <c r="M505" s="60"/>
+      <c r="N505" s="60"/>
+      <c r="O505" s="61"/>
+    </row>
+    <row r="506" spans="1:15">
+      <c r="A506" s="57"/>
+      <c r="B506" s="58"/>
+      <c r="C506" s="59"/>
+      <c r="D506" s="59"/>
+      <c r="E506" s="59"/>
+      <c r="F506" s="58"/>
+      <c r="G506" s="60"/>
+      <c r="H506" s="60"/>
+      <c r="I506" s="60"/>
+      <c r="J506" s="60"/>
+      <c r="K506" s="60"/>
+      <c r="L506" s="60"/>
+      <c r="M506" s="60"/>
+      <c r="N506" s="60"/>
+      <c r="O506" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
